--- a/news_data/2016_08.xlsx
+++ b/news_data/2016_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,58 +22,187 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t>“日골프관광객 잡자” 제주도ㆍ관광협회 민관합동 마케팅</t>
-  </si>
-  <si>
-    <t>제주도 - 日아오모리현 자매결연… 관광 활성화 추진</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 인근 중소형 오피스텔 ‘더바른’ 공급</t>
-  </si>
-  <si>
-    <t>제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감...</t>
-  </si>
-  <si>
-    <t>제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최</t>
-  </si>
-  <si>
-    <t>제주도, 중국인 관광객 비중만 높았네</t>
-  </si>
-  <si>
-    <t>제주도 관광객 렌터카 성수기 예약율 '역대 최저'</t>
-  </si>
-  <si>
-    <t>'19회 제주도 관광기념품 공모전' 당선작 발표</t>
-  </si>
-  <si>
-    <t>여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은?</t>
-  </si>
-  <si>
-    <t>‘제주도 드림타워 개발 ’ 롯데관광개발, 소유주 1주당 0.5주씩 무상증자 실...</t>
-  </si>
-  <si>
-    <t>“日골프관광객 잡자” 제주도·관광협회 민관합동 마케팅 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 “日골프관광객 잡자” 제주도·관광협회 민관합동 마케팅 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 “日골프관광객 잡자” 제주도·관광협회 민관합동 마케팅 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.08.07 17:32 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 지난 8월2~5일 일본 동경스포츠박람회에 참가해 골프관광객 유치를 위한 비즈니스 마케팅을 펼친 제주관광 민·관 홍보단. ⓒ제주의소리 제주도와 제주도관광협회가 일본 골프관광객 유치를 위한 민관 합동 마케팅을 전개했다.제주도관광협회는 도내 골프장 및 여행업계와 민관 공동홍보단을 구성, 지난 2일부터 5일까지 일본 도교에서 열린 ‘도쿄 스포츠박람회’에서 골프 관광객 유치 활성화를 위한 비즈니스 마케팅을 전개했다고 7일 밝혔다. 이번 박람회는 일본에서 개최되는 가장 큰 스포츠 및 피트니스 박람회다.제주관광 홍보단은 현지 주요 골프업계와 레저스포츠 기관·단체, 동호회 등을 대상으로 공격적인 판촉 활동을 벌이는 한편 향후 다양한 골프 관련 협력 방안 모색을 위한 인적 네트워크를 구축했다.키타오카 토시아키 전일본골프연습장연맹 이사는 “한·일간 스포츠문화 교류를 희망하고 있으며 제주골프 상품 기획과 함께 400개사의 골프연습장 대표들에게 제주골프의 우수성과 매력을 적극적으로 전파하겠다”고 약속했다. 제주관광 홍보단은 또 일본 최대 골프 미디어 매체인 GDO(Golf Digest Online)와의 간담회를 통해 일본 전역으로 온라인을 활용한 제주 골프장을 홍보할 수 있는 여건을 마련했다.오는 9월1일부터 5일까지는 GDO 관계자들이 제주를 방문, 도내 골프장 방문 시찰 등을 추진하기로 의견을 모았다.관광협회 관계자는 “민관 홍보단은 이번 방문 세일즈를 통해 실질적인 일본지역 골프 관광객이 유치될 수 있도록 후속조치를 철저히 해나갈 계획”이라고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 &lt; 건설/부동산 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 건설/부동산 제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 기자명 금강일보 입력 2016.08.16 11:11 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 장기화되는 경기불황과 사상 최저치를 기록하고 있는 저금리 현상으로 수익형 부동산에 대한 관심이 집중되고 있다. 특히 투자한 상품에 대한 현금화 가능 여부를 뜻하는 환금성이 좋은 상품인 수익형 호텔이 뜨거운 감자로 부상하고 있다. 하지만 수익형 호텔의 수익은 해당 호텔이 위치한 관광지의 방문객 수요에 따라 공실이 결정되기 때문에 호텔의 접근성이 무엇보다 중요시 여겨지고 있다. 이에 따라 매년 관광객 수요가 10%이상 급증하고 있는 제주도 수익형 호텔에 대한 관심이 뜨겁다. 실제 제주도 관광협회의 발표자료에 따르면 2014년 제주도를 방문한 관광객은 1227만명이 넘으며, 2015년 방문관광객은 1363만명을 넘어 11.1% 증가한 것으로 나타났다. 또한 제주도 서귀포에 제2 신공항 건설계획을 밝혀 관광 수요는 꾸준히 증가할 것으로 보인다. 때문에 제주도 숙박시설의 공급량은 급증하는 수요에 비해 여전히 부족하다는 전문가들의 평이 많다. 특히 미래가치 투자 계획이 집중되어 있는 제주도 서귀포시의 호텔 공급이 부족한 실정이다. 서귀포시는 제2신공항을 시작으로 서귀포 혁신도시, 영어교육도시, 예래 휴양형 주거단지, 서귀포 관광미항 헬스케어타운, 강정민군 복합미항, 신화역사공원, 위미항 다기능어항 개발사업 등 풍부한 관광컨텐츠 개발 계획이 집중되어 서귀포 호텔의 공실이 없을 것으로 전망된다. 사업지 인근에 위치한 제주 위미항은 해양수산부의 '10港 10色 국가어항 만들기' 프로젝트에 선정되면서 300억원이 투입돼 향후 해양 레저 네트워크의 새로운 플랫폼 역할을 수행 할 것으로 전망된다. 서귀포 위미항에 자리할 수익형 분양호텔인 코업시티호텔 하버뷰의 관계자는 “제주도의 관광객 수요가 증가한 만큼 숙박시설의 추가 공급은 불가피할 것으로 보아며, 제주도 서귀포시의 관광수요는 앞으로 더욱 증가할 것이기 때문에 제주도 서귀포 내에서도 요충지에 자리잡은 코업시티 호텔 하버뷰 분양에 관련하여 끊임없는 문의가 이어지고 있는 상황입니다 .”라고 전했다. 제주 수익형 호텔인 코업시티 호텔하버뷰는 국내 부티크&amp;비즈니스호텔을 20년 이상 운영하고 있는 숙박시설 운영관리 기업인 코업이 맡아 안정적인 객실가동률로 높은 수익률이 기대되는 곳이다. 저작권자 © 금강일보 무단전재 및 재배포 금지 금강일보 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 [속보]4호선 지하철 시위, 4일 출근길 지연 고명환 와이프 임지은 프로필은? [오늘의 운세] 4일 띠별 나의 운세는? 시사 지역 문화·연예 01 [속보]4호선 지하철 시위, 4일 출근길 지연 02 유승민, 보수 차기 대권주자 1위... 범진보 이재명 독주[리처치뷰 여론조사] 03 '러시아 동원령' 안현수는? 04 대전·세종 집값 하락폭 전국 1·2위 다투는 중 05 충북 옥천에 첫 ‘e편한세상 퍼스트원’ 분양 06 여수 해상서 기름유출 사건 발생 07 [오늘날씨] 개천절 흐리고 비, 내일까지 수도권 최대 100mm 08 대전상의-민주당 ‘지역경제 활성화’ 간담회 09 이자 부담 느는데 중도상환도 어렵다 10 “고물가에 후원금도 줄었는데…” 11 공공요금 ‘더블인상’...시름하는 충청경제 12 군가 '멸공의 횃불' 왜 가사 바뀌었나? 13 국민 절반 ‘육사 충남 이전’ 찬성 14 [尹정부 첫 국감] 외통위·국방위 등서 文·尹 정권 격돌 예고 전체보기 01 [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 02 아산시, 배방 지역 공공기여 협약 체결 03 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 04 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 05 국학원, 단기4355년 개천절 기념, '한국인이 한국인답게' 경축 행사 개최 06 부여군, ‘백제 사비천도 페스타’ 선봬 07 천안시 2022 충남체전 종합 우승 ··· 역대 최고 성적 08 이명수 의원, 지방문화원 지원 강화 법 발의 09 제천시, 특정업체에 ‘일감몰아주기’ 의혹 논란 10 영동군, 도약과 발전을 위한 2023년 청사진 제시 11 보은군의회, 의원 발의 조례 2건 의결 12 영동군, 민선8기 첫 추경 역대 최대 7673억 원 확정 13 단양 도담정원, 2만㎡ 황화 코스모스 물결 장관 14 괴산유기농산업엑스포, 입장객 10만 명 돌파 전체보기 01 고명환 와이프 임지은 프로필은? 02 이천수 와이프 심하은 누구? 03 엄정화 올케 윤혜진, 사이좋은 모습 공개 04 송가인 최애 가수는 바이브 05 박수홍, 봉사활동 모습 공개 06 '조이 언급' 크러쉬 당황시킨 비비 07 구단주 허재의 '살벌한 욕설' 이유 08 '신혼' 손예진, 현빈과 달달한 모습 공개 09 임영웅과 데이트하는 영상? ‘사랑해 진짜’ 10 '수리남' 김민귀 "광신도 연기하려..." 11 설민석 2년만 방송 복귀, 대중들 반응은? 12 김용건 예비며느리 황보라, 차현우와 혼인신고 완료 13 박민영 재력가 열애설부터 친언니 사외이사 선임까지 14 구준엽♥서희원, “화장실 갈 때도 안아서 데려가” 전체보기 가장 빠른 충청뉴스 아산시, 배방 지역 공공기여 협약 체결 아산시 배방 공수 지역 개발사업자들이 총 1000억 원의 공공기여금을 통해 해당 지역의 교통환경을 개선을 돕게 된다.박경귀 시장은 지난달 30일 신도리코 공장 이전 부지 개발사업자... [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 스포츠 뉴스 천안시, 충남체육대회 종합 우승 차지 대전도시공사 펜싱팀 하태규 ‘금빛 찌르기’ [포토] 설동호 교육감 전국체전 출전 선수단 격려 ‘현대가(家)’ 리디아 고, 약혼자가 걱정해... [사진뉴스] LX 지역본부, 충남체육회에 전국체전 기부금 전달 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.08.05 16:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도 관광국(국장 이승찬)은 5일 오후 2시 제주도청 2청사 자유실에서 '제주의 미래가치를 키우는 관광·투자의 질적 성장 실현'을 주제로 한 워크숍을 개최했다.제주도와 각 행정시 관광.투자 분야 공무원 등 60여명이 참석한 이날 공무원은 관광분야 하반기 핵심업무 추진계획 발표에 이어 연내 실질적인 성과를 낼 수 있는 협의 강화 방안을 논의했다.특히 제주관광 질적성장 기본계획 후속 조치 추진과 제주 MICE 다목적복합시설 확충, 대규모 관광단지 조성사업 체크리스트 운영 정착, 제주 특성에 적합한 선진 카지노업 관리.감독 매뉴얼 제정 등 소관별 핵심과제가 집중 논의됐다.이승찬 제주도 관광국장은 "이번 워크숍을 통해 관광국의 비전을 공유하고, 제주관광 발전을 위한 공감대 형성을 통해 제주관광 질적성장을 앞당기는 기회가 되길 바란다"고 말했다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 중국인 관광객 비중만 높았네 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 중국인 관광객 비중만 높았네 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도, 중국인 관광객 비중만 높았네 기자명 조문호 기자 입력 2016.08.03 13:15 수정 2016.08.04 11:43 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 여행목적 단순해 재방문률 겨우 10%대다양한 욕구 맞춘 관광상품 개발 ‘시급’“도내 관광기업 적극적 협조 유도해야” [제주도민일보DB] 서귀포시 성산일출봉을 둘러보고 내려가는 중국인 관광객들.[제주도민일보=조문호 기자] 제주도를 찾는 외국인 관광객 가운데 중국인 관광객(이하 요우커)의 비중은 높아지고 있지만 여행목적이나 형태가 단순해 개선이 필요하다는 지적이다.제주발전연구원 신동일 연구위원이 3일 발표한 ‘중국인 관광객 유치에 따른 도민소득 증대 방안’ 연구결과에 따르면 내도 외국인 관광객 가운데 요우커(遊客)가 차지하는 비중은 2010년 51.3%에서 해마다 급증, 지난해에는 85.5%를 차지했다.올해 상반기에만 하더라도 전체 외국인 관광객 164만9263명 가운데 요우커는 85.4%(140만9091명)를 차지했다.요우커 가운데 ‘5일 이상’ 머무르는 경우는 46.6%(제주관광공사의 ‘2015 제주도 방문관광객 실태조사’ 기준)로 체재기간은 약간 긴 것으로 나타났다.이에 비해 방문횟수는 ‘1회’가 86.1%를 차지했다. 재방문률이 매우 낮은 수준이다.그 원인은 제주 여행목적이 85.1%가 ‘휴가 및 휴양여행’이고, 제주여행 고려 요인으로 ‘자연경관 감상’을 60.8%나 꼽은 것에서 어느 정도 엿볼 수 있다.[제주도민일보DB]. 제주시 연동에서 셀카를 찍고 있는 중국인 관광객들.도내 관광업계 전문가들은 그 동안 “제주도를 찾는 외국인 관광객의 관광형태가 자연경관 감상에만 집중돼 있어 다양한 관광프로그램 마련이 시급하다”고 지적해왔다.제주도와 제주관광공사 등 관광 전문기관들도 이에 대비해 웨딩관광, 요트관광, 낚시관관 등 고부가가치형 관광상품을 개발해 ‘질적 성장’으로 나아가기 위해 노력을 기울이고 있다.신 연구위원은 연구보고서에서 중국의 국외관광에 대해 ▶지속적으로 성장 ▶방한(내도) 관광객도 증가 ▶일본과의 유치경쟁 더욱 치열 ▶관광객이 젊어지고 여성, 개별, 가족단위 관광객 증가 ▶힐링과 스마트관광이 중요한 이슈로 부각 등의 변화상을 전망했다.그는 이를 통해 ▷지역 상권과의 접근성 강화 필요 ▷개별 및 가족단위 관광인프라 확충 ▷스마트관광 활성화 대비 ▷힐링, 셀러브리티 등 고부가가치 상품 개발 등 정책적 시사점을 이끌어냈다.요우커들의 관광 욕구가 다양해지는 만큼 제주도 차원의 대책 마련도 서둘러야 한다는 지적이다.[제주도민일보DB] 제주도와 제주관광공사가 지난 5월 29일부터 6월 2일까지 중국 심양지역의 유력 캠핑 동호회와 여행사, 매체를 대상으로 실시한 제주 캠핑·레저 상품개발 및 홍보를 위한 팸투어 현장.제주관광공사 한 관계자는 최근 이와 관련 “요우커의 국외관광은 한국만 유독 단체관광에 집중됐다”며 그 원인으로 언어소통 불편, 매력적인 관광 아이템 부족 등을 들었다. 제주도는 이에 더해 대중교통의 불편함도 한 요소로 꼽았다.이 관계자는 이에 대비 개별관광객(FIT)이나 특수목적관광객(SIT)의 다양한 욕구를 만족시킬 수 있는 관광상품 개발, 이와 함께 이동수단 편의성 제고 등의 필요성을 강조했다.신 연구위원은 결론 및 제언에서 “향후 행정기관을 포함한 정책 집행기관 및 유관기관들은 도민 역량강화를 염두에 두는 지원 방안 마련, 도내 관광기업의 적극적 협조와 참여를 유도해 내는 꾸준한 홍보 및 설득 활동이 가장 중요한 요인”이라고 밝혔다. 관련기사 ‘요우커’, 제주도민 소득증대로 연계하자 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 관광객 렌터카 성수기 예약율 '역대 최저' - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-04 10:03 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 제주도 관광객 렌터카 성수기 예약율 '역대 최저' 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 산업 정책·일반 제주도 관광객 렌터카 성수기 예약율 '역대 최저' 가동율 작년대비 80%에도 못미처, 극성수기인데도 반값 할인중 유제원 기자 승인 2016.08.07 19:47 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [이뉴스투데이 유제원 기자]본격적인 피서철과 휴기시즌을 맞이하여 제주도를 방문하는 여행객이 늘어나고 있다. 작년 7월 기준 월방문자는 98만명이었으나, 올해는 같은 기간 113만명이 방문하여 전년보다 13%증가한 수치다.하지만, 도내 렌터카 예약율은 사상 최저여서 업체들의 고민은 늘어가고 있다. 원인은 바로 수요에 비해 공급이 많아서 이러한 현상이 나타나는 것으로 드러났다. 좀더 자세히 살펴보면 렌터카 업체수는 14년 12월31일 기준 82개업체에서 16년 6월 31일 기준 110개 업체로 약 34%가 늘었으며, 차량대수도 2만 2819대에서 2만 9900대로 약 31%가 증가했다.그런데 늘어난 업체를 살펴보면 도내 업체가 90% 이상 차지했다. 즉, 업체간의 경젱은 더욱 치열해지고 있는 상황이다.도내 렌터카업체들 조사결과, 대략 작년대비 예약율이 평균 20%정도 떨어졌으며, 극성수기 인데도 50%까지 할인을 하고 있다. 이러한 현상은 실제로 몇몇 렌터카예약사이트를 방문하면 금방 알수 있다. 제주도렌터카 가격비교사이트를 운영중인 제주패스렌트카에 따르면, 지난달 21일부터 이달 20일까지 42개업체, 9000여건의 예약정보 분석결과 평균 대여일수는 2박 3일이 93%로 압도적으로 많았다. 3박 4일은 6%, 기타 1% 순이었다. 자차보험가입율도 올초 조사시에는 79%수준이었는데, 이번 조사에서는 85%로 늘어났다고 한다.차종별 대여순위도 살펴보면 작년 년말 연휴기간에는 승합차의 대여율이 가장 높았으나, 올 여름 성수기에는 중형차, 준중형에 이어 대여순위 3위를 기록했다. 경차의 인기는 여전했으며, 2박 3일 기준 차종별 평균대여료는 중형차가 15만원대, 준중형이 13만원, 경차가 10만원대, 승합차가 28만원대였다.렌터카 업체의 관계자는 "대형업체들은 가동율과 차량가격이 안정적으로 운영되고 있는 반면, 신생업체 또는 규모가 작은 업체들은 상대적으로 약세를 면치 못하고 있는 실정"이라며 "9월 1일부터 공항인수반납도 불가능하게 되어 걱정이 이만저만이 아니다"고 하소연했다. Tag #N 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 유제원 기자 kingheart@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 롯데케미칼, 친환경 소재 EPP 활용한 층간 소음 완충재 개발 롯데케미칼, 친환경 소재 EPP 활용한 층간 소음 완충재 개발 안산도시공사 누리집, 웹 접근성 품질 인증 획득 안산도시공사 누리집, 웹 접근성 품질 인증 획득 성남시, 친환경 차량 충전시설 입지분석 ‘대상’ 수상 성남시, 친환경 차량 충전시설 입지분석 ‘대상’ 수상 하나은행, 퇴직연금 ‘디폴트옵션 라이브 세미나’ 진행 하나은행, 퇴직연금 ‘디폴트옵션 라이브 세미나’ 진행 한샘, 포시즌 브랜드 마케팅 전개 한샘, 포시즌 브랜드 마케팅 전개 인천항 물동량 200톤 이상 인천 포워더에 인센티브 지원 인천항 물동량 200톤 이상 인천 포워더에 인센티브 지원 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1“이 경고등 갑자기 왜 켜졌지?” 2대통령실, ‘외교 참사’ 논란 거리두기…“민생 집중할 때” 3올해 무역수지 480억달러 적자 전망…IMF 직전의 2.3배 4면역력 필수 시대…식품업계, 건강기능식품 시장 ‘정조준’ 5당정, ‘탄력호출료’ 확대...심야택시난 해결 팔걷었다 6잘 나가는 스타트업, 경쟁력·성장성 다 잡은 노하우는? 최신뉴스 1롯데케미칼, 친환경 소재 EPP 활용한 층간 소음 완충재 개발 2안산도시공사 누리집, 웹 접근성 품질 인증 획득 3성남시, 친환경 차량 충전시설 입지분석 ‘대상’ 수상 4하나은행, 퇴직연금 ‘디폴트옵션 라이브 세미나’ 진행 5한샘, 포시즌 브랜드 마케팅 전개 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
-  </si>
-  <si>
-    <t>'19회 제주도 관광기념품 공모전' 당선작 발표 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 '19회 제주도 관광기념품 공모전' 당선작 발표 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 '19회 제주도 관광기념품 공모전' 당선작 발표 홍수영 기자 승인 2016.08.11 15:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 금상 ‘제주 풍경 일러스트 종이액자’, ‘제주 해녀 캐릭터(숨비·소리) 이야기’ 등 총 34개 선정 [제주일보=홍수영 기자] 제주특별자치도와 제주관광협회는 ‘제19회 제주특별자치도 관광기념품 공모전’에서 금상으로 선정된 ‘제주 풍경 일러스트 종이액자’와 ‘제주 해녀 캐릭터(숨비·소리) 이야기’ 등을 비롯해 총 34개 당선작을 선정했다고 11일 밝혔다.일반기념품 분야 금상 작품으로 선정된 홍성훈씨의 ‘제주 풍경 일러스트 종이액자’는 아름다운 도내 명소의 풍경을 담은 종이액자를 통해 저렴한 가격으로 제주를 오래 기억할 수 있다는 점에서 높은 점수를 받았다.테마기념품 분야 금상 작품인 이재호·고난영씨의 ‘제주 해녀 캐릭터 이야기’는 제주 해녀 캐릭터를 종이칼, 열쇠고리 등 상품화해 그 가치를 높이는 데 기여했다는 평가를 받았다.다만 이번 공모전에서는 심사위원들의 종합적 의견에 따라 대상은 선정되지 않았으며, 시상식은 이달 말 개최될 예정이다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? &lt; 맛집탐방 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 맛집탐방 여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? 기자명 금강일보 입력 2016.08.01 14:11 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 국내를 대표하는 관광지 중 하나로 꼽힌다. 덕분에 제주도 관광객들을 맞이하기 위한 제주도맛집들도 즐비해 있다. 제주도에서는 타 지역에서 맛볼 수 없는 싱싱한 활어회가 많아 제주도횟집들이 맛집으로 자주 거론되고 있다.특히 여름철 휴가 차 제주도를 방문하는 관람객에게 있어 제주도 활어회는 별미로 통한다. 여름철 특선 메뉴를 선보이는 제주도횟집들도 많아 식도락 여행의 진수를 체험할 수 있기도 하다.제주도 제주시 동한두기길 소재 '월척수산본점'은 제주도에서만 맛볼 수 있는 다금바리, 갓돔 등의 횟감을 코스 요리로 선보이고 있다. 뿐만 아니라 광어, 고등어 등의 회를 저렴하게 제공하고 있다. 수십 가지에 이르는 다양한 스끼다시 또한 눈에 띈다. 업체 측의 가장 큰 특징은 고급어종 주문 시 매우 다양한 서비스를 제공한다는 점이다. 다금바리, 갓돔 주문 시 랍스타, 해물찜, 참돔구이, 참돔조림 등의 서비스 메뉴를 제공받을 수 있다. 아울러 여름 특선 메뉴인 해물닭찜 메뉴도 선보이고 있다. 매장에서의 오션뷰도 뛰어나다. 드넓은 제주도 바다를 감상하며 식사를 즐기는 것은 업체의 특별한 매력이다. 뿐만 아니라 식사 중 일몰 등의 장관을 구경할 수 있다.제주도 관광지도 가까이 있어 식사 후 편리한 동선을 구축할 수 있다는 장점도 있다. 업체는 제주공항에서 불과 5분 거리에 위치해 있어 접근성이 좋다. 또한 주변에 용두암, 용연구름다리, 용담해안도로, 제주수목원테마파크 등의 관광지도 다양하게 자리하고 있다.업체 관계자는 "제주도만의 특별한 횟감을 맛볼 수 있을 뿐 아니라 공항과 주변 관광지도 가까워 편리한 여행을 즐길 수 있다."라며 "제주공항근처맛집으로 휴가 차 제주도를 방문하는 관광객들이 늘고 있는 상황"이라고 전했다. 저작권자 © 금강일보 무단전재 및 재배포 금지 금강일보 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 [속보]4호선 지하철 시위, 4일 출근길 지연 고명환 와이프 임지은 프로필은? [오늘의 운세] 4일 띠별 나의 운세는? 시사 지역 문화·연예 01 [속보]4호선 지하철 시위, 4일 출근길 지연 02 유승민, 보수 차기 대권주자 1위... 범진보 이재명 독주[리처치뷰 여론조사] 03 '러시아 동원령' 안현수는? 04 대전·세종 집값 하락폭 전국 1·2위 다투는 중 05 충북 옥천에 첫 ‘e편한세상 퍼스트원’ 분양 06 여수 해상서 기름유출 사건 발생 07 [오늘날씨] 개천절 흐리고 비, 내일까지 수도권 최대 100mm 08 대전상의-민주당 ‘지역경제 활성화’ 간담회 09 이자 부담 느는데 중도상환도 어렵다 10 “고물가에 후원금도 줄었는데…” 11 공공요금 ‘더블인상’...시름하는 충청경제 12 군가 '멸공의 횃불' 왜 가사 바뀌었나? 13 국민 절반 ‘육사 충남 이전’ 찬성 14 [尹정부 첫 국감] 외통위·국방위 등서 文·尹 정권 격돌 예고 전체보기 01 [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 02 아산시, 배방 지역 공공기여 협약 체결 03 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 04 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 05 국학원, 단기4355년 개천절 기념, '한국인이 한국인답게' 경축 행사 개최 06 부여군, ‘백제 사비천도 페스타’ 선봬 07 천안시 2022 충남체전 종합 우승 ··· 역대 최고 성적 08 이명수 의원, 지방문화원 지원 강화 법 발의 09 제천시, 특정업체에 ‘일감몰아주기’ 의혹 논란 10 영동군, 도약과 발전을 위한 2023년 청사진 제시 11 보은군의회, 의원 발의 조례 2건 의결 12 영동군, 민선8기 첫 추경 역대 최대 7673억 원 확정 13 단양 도담정원, 2만㎡ 황화 코스모스 물결 장관 14 괴산유기농산업엑스포, 입장객 10만 명 돌파 전체보기 01 고명환 와이프 임지은 프로필은? 02 이천수 와이프 심하은 누구? 03 엄정화 올케 윤혜진, 사이좋은 모습 공개 04 송가인 최애 가수는 바이브 05 박수홍, 봉사활동 모습 공개 06 '조이 언급' 크러쉬 당황시킨 비비 07 구단주 허재의 '살벌한 욕설' 이유 08 '신혼' 손예진, 현빈과 달달한 모습 공개 09 임영웅과 데이트하는 영상? ‘사랑해 진짜’ 10 '수리남' 김민귀 "광신도 연기하려..." 11 설민석 2년만 방송 복귀, 대중들 반응은? 12 김용건 예비며느리 황보라, 차현우와 혼인신고 완료 13 박민영 재력가 열애설부터 친언니 사외이사 선임까지 14 구준엽♥서희원, “화장실 갈 때도 안아서 데려가” 전체보기 가장 빠른 충청뉴스 아산시, 배방 지역 공공기여 협약 체결 아산시 배방 공수 지역 개발사업자들이 총 1000억 원의 공공기여금을 통해 해당 지역의 교통환경을 개선을 돕게 된다.박경귀 시장은 지난달 30일 신도리코 공장 이전 부지 개발사업자... [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 스포츠 뉴스 천안시, 충남체육대회 종합 우승 차지 대전도시공사 펜싱팀 하태규 ‘금빛 찌르기’ [포토] 설동호 교육감 전국체전 출전 선수단 격려 ‘현대가(家)’ 리디아 고, 약혼자가 걱정해... [사진뉴스] LX 지역본부, 충남체육회에 전국체전 기부금 전달 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>‘제주도 드림타워 개발 ’ 롯데관광개발, 소유주 1주당 0.5주씩 무상증자 실시 - 이투데이 속보창 구독신청 RSS 부동산 시장동향 업계 정책 분양 개발 경매 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 부동산 업계 ‘제주도 드림타워 개발 ’ 롯데관광개발, 소유주 1주당 0.5주씩 무상증자 실시 입력 2016-08-08 11:08 수정 2016-08-08 11:16 정경진 기자																								jungkj@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲제주도 드림타워 조감도(제공=롯데관광개발)제주도 드림타워 카지노 복합 리조트 사업을 추진 중인 롯데관광개발이 보퉁주 1510만주를 무상증자한다. 롯데관광개발은 8일 오전 10시 이사회를 열고 주식발생초과금 75억6583만7000원을 자본에 전입하고 이에 상당하는 신주를 발행하기로 결의했다고 밝혔다.이에 따라 롯데관광개발은 이달 23일 주주명부에 등재된 주주에 대해 소유주식 1주당 0.5주의 비율로 신주를 배정한다. 배정한 주식이 1주 미만의 단수주일 경우 단수주는 신주 상장일의 종가를 기준으로 현금 지급한다. 이번 무상증자 결정에 따라 추가로 발행되는 신주는 1513만1674주이며 9월 7일 교부될 예정이다.롯데관광개발 관계자는 “이번 무상증자는 드림타워 사업을 원활히 진행하기 위한 목적”이라고 말했다.롯데관광개발의 주력사업으로 꼽히는 드림타워 카지노 복합리조트 사업은 제주시 도심 중앙에 추진되고 있다. 당시 2013년 11월 계열사인 동화투자개발이 중국 부동산개발사인 녹지그룹과 공동개발 계약을 체결하면서 시작됐다.이후 2015년 10월 롯데관광개발이 동화투자개발로부터 카지노호텔 계약금 1000억원과 전체 사업권리를 현물출자 받아 드림타워 카지노 복합리조트 사업을 직접 추진하게 됐다. 올 4월에는 세계1위 건설사인 중국건축이 시공사로 참여하면서 롯데관광개발・녹지그룹・중국건축으로 구성, 사업을 추진 중이다.향후 드림타워 카지노 복합리조트 완공시 롯데관광개발이 직접 소유 및 운영에 나선다. 녹지그룹은 호텔 레지던스 850실을 국내와 중국에서 분양할 계획이다.한편 올해 5월 착공에 들어간 드림타워 카지노 복합리조트는 호텔 776실과 호텔레지던스 850실 등 1626객실로 구성된다. 영업장면적 9120㎡의 외국인전용카지노, 쇼핑몰, 스카이라운지, 15개 레스토랑, 호텔부대시설을 갖추고 2019년 7월 개점한다. #롯데관광개발 #제주도드림타워 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [상보] 뉴욕증시, 영국발 훈풍·국채금리 진정에 상승...다우 2.66%↑ 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 부동산 최신 뉴스 유경준, "문재인 정부, 10년 분양전환 임대주택 2019년부터 사실상 폐지” "LH, 원가공개 소송 100% 패소…모든 아파트 분양원가 공개해야" "착한 임대인에 합류합니다"…LH, 임대주택 임대료 ‘동결’ 1년 연장 대우건설ㆍ중흥그룹, 독립유공자 후손 노후주택 개선 사업 활발 하락세 깊어지는 인천 아파트값…송도 4억·부평 2억 ‘뚝’ 포스코건설, 1810억 규모 서울 신반포 청구아파트 리모델링 사업 수주 현대건설, 인천항만공사와 ‘ESG 경영 공동추진 업무협약’ 체결 LH, 청년·신혼부부 매입임대 3310가구 공급…4일부터 청약 상장 대형건설사 3분기 실적 전망 보니 삼성ㆍGS ‘맑음’ DLㆍ금호 '흐림' 서울 사람의 지방 아파트 원정 매입 급감…2년 9개월 만에 최저 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:57 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.디아이씨 410 3.에이프로젠제약 62 4.KR모터스 79 5.일진홀딩스 480 1.라닉스 1,520 2.오픈엣지테크놀로지 2,650 3.칩스앤미디어 3,100 4.오토앤 2,200 5.유안타제7호스팩 650 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,176,000 +1.22% 이더리움 1,906,000 +1.93% 비트코인 캐시 167,000 -0.36% 리플 656.6 -0.48% 위믹스 2,588 +1.57% 에이다 613 -0.13% 이오스 1,697 -0.06% 트론 88.06 -0.97% 스텔라루멘 166.8 -4.41% 비트코인에스브이 69,450 -0.5% 체인링크 10,670 +2.79% 샌드박스 1,194 +1.1% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+    <t>제주도, 중국 시안서 관광홍보…원희룡 "산시성과 공동발전"</t>
+  </si>
+  <si>
+    <t>제주도, 저가 관광 개선·카지노제도 정비 본격 추진</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 서비스 '워킹그룹 킥오프 회의' 개최</t>
+  </si>
+  <si>
+    <t>[새벽을 여는 사람들] 급증하는 제주도 관광객 렌터카 이용 차질없도록 발로 ...</t>
+  </si>
+  <si>
+    <t>제주도, 관광 유관기관 합동워크숍</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 등 싱가포르 여행박람회서 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 중국 내륙 관광시장 공략 '가속화'</t>
+  </si>
+  <si>
+    <t>제주도 관광객 역대 최고치 기록</t>
+  </si>
+  <si>
+    <t>7월 제주도 찾은 관광객 수 154만 명…역대 최고치</t>
+  </si>
+  <si>
+    <t>제주도 방문 관광객 증가…제주 바다뷰 테라스하우스 '덴앤델' 분양</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 국제 관광 박람회 홍보관 운영</t>
+  </si>
+  <si>
+    <t>[이사람-김희현 제주도의회 문화관광스포츠위원장] “눈높이 맞는 문화관광 정...</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 관광기념품 공모전 당선작 선정</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 관광진흥기금 68업체 280억 융자확정</t>
+  </si>
+  <si>
+    <t>제주도, 장애물 없는 관광환경 조성 5개년 계획 수립</t>
+  </si>
+  <si>
+    <t>&lt;이사람&gt; 김희현 제주도의회 문화관광스포츠위원장</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 日 골프 관광객 유치 마케팅 활동</t>
+  </si>
+  <si>
+    <t>제주도 연동의 푸르름 관광하고 제주도 맛집에서 맛있는 관광을</t>
+  </si>
+  <si>
+    <t>제주도, '생태관광지원센터' 전문인력 양성 과정 운영</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 관광약자 배려안 수립한다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 관광객 수요 증가하는 제주도 위미항, 호텔분양정보 찾는 소비자 늘어. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "제주도 골프관광, 만족스럽지만 비용은 비싸다" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘사드 논란’에 불똥 튄 제주도...中 경제보복 우려에 관광업계 비상 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 '장애물 없는 관광환경 조성' 5개년 계획 수립 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “日골프관광객 잡자” 제주도ㆍ관광협회 민관합동 마케팅 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 - 日아오모리현 자매결연… 관광 활성화 추진 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 중문관광단지 인근 중소형 오피스텔 ‘더바른’ 공급 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 중국인 관광객 비중만 높았네 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 관광객 렌터카 성수기 예약율 '역대 최저' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '19회 제주도 관광기념품 공모전' 당선작 발표 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘제주도 드림타워 개발 ’ 롯데관광개발, 소유주 1주당 0.5주씩 무상증자 실시 </t>
+  </si>
+  <si>
+    <t>제주도, 저가 관광 개선·카지노제도 정비 본격 추진 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 저가 관광 개선·카지노제도 정비 본격 추진 관광·투자 질적 성장 위한 3대 중점사항 발표 (제주=뉴스1) 고경호 기자					| 2016-08-28 08:16 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 중국인 단체관광객들이 비날씨에도 제주시 용두암 관람 전망대을 가득메우며 관람하고 있다. /뉴스1 © News1 이석형 기자 제주특별자치도가 저가관광 개선 및 시장 다변화, 도민체감형 투자지원 제도 운영, 카지노 제도 정비 등을 본격적으로 추진한다.제주도는 28일 올해 하반기 이 같은 내용을 담은 관광·투자분야 질적 성장을 위한 3대 중점 추진사항을 발표하고 연말까지 행정력을 집중해 나갈 방침이라고 28일 밝혔다.제주관광의 컨트롤타워를 맡기 위해 새로 신설된 제주도 관광국은 제주관광공사, 제주특별자치도관광협회, 제주국제컨벤션센터, 제주컨벤션뷰로 등 관광 유관기관 간 소통과 협업을 관장해 관광 현안들에 대한 해결 방안을 마련해 나가기로 했다.◇저가관광 개선·시장 다변화가 추진제주도는 관광산업 질적 성장을 위해 저가관광 개선 및 시장 다변화가 추진하기로 했다. 관광산업 질적 성장 핵심과제인 질적 성장 기본계획은 기존에 수립된 마케팅 전략 변화 등을 포함해 불만족 요인을 관리하고, 이와 관련된 6개 과제가 중점적으로 추진된다.  최근 문제로 대두되고 있는 제주 저가관광 개선을 위한 실태조사와 이에 따른 관광 유관기관과 실천 가능한 제도를 발굴하기로 했다. 제주관광진흥기금의 효율적 운용을 위해 조례개정을 통해 기금을 제주시와 서귀포시에서 집행할 수 있도록 집행 권한 위임도 추진하기로 했다.또 중국인 개별관광객 유치 확대와 시장다변화를 위한 마케팅도 함께 진행된다. 제주도는 사드를 대비한 중국 여행 모니터링 상시 분석과 함께 오는 10월에는 베트남 제주관광홍보사무소를 개소하는 한편 4개 국어 관광정보 홈페이지 및 모바일 웹과 앱의 신규 오픈을 추진하기로 했다.관광객 유치 이벤트를 위해 대도시 관광객 유치 홍보도 진행한다.관광객 유치 이벤트는 △‘이것이 제주다’(9월) △KCON 2016 JEJU(10월) △제2회 제주 MICE 산업대전(11월) △한라산 눈꽃 이벤트(12월) 등이다.해외 제주관광홍보사무소장 합동 워크숍도 오는 9월에 실시해 시장다변화의 대응 방안을 마련해 나갈 계획이다. ◇제주형 유원지 개발 추진 대법의 판결로 공사가 중단된 제주 서귀포시 예래휴양형주거단지 전경. /뉴스1 © News1 이석형 기자 제주도는 도민 체감형 투자지원 제도 운영 및 투자 유치와 함께 미래가치를 실현하는 관광개발, 제주형 유원지 개발을 추진하기로 했다.투자진흥지구 관리권 강화를 위해 오는 10월까지 고용 및 투자실행 여부 등을 점검할 계획이며, 부진한 투자진흥지구인 경우 지정해제 등 행정조치와 제도개선가 이뤄진다. 오는 9월에는 중국 광저우 합작투자설명회에 참석하는 등 제주 향토기업의 성장 동력 영역을 확대해 나갈 계획이다. 미래가치 실현을 위한 관광개발 추진과 제주형 유원지 개발도 추진해 나간다. 대규모 개발사업 업무매뉴얼 시범 적용으로 사업계획상 미비사항을 발굴해 제도개선을 추진하고, 개발사업 시행 승인 시 부여조건에 대한 이행 여부를 점검해 승인조건을 이행하도록 유도하기로 했다. 또 제주형 유원지 개발 모델을 마련해 도시계획조례 개정과 동시에 시행될 수 있도록 준비하고, 미 착공된 유원지 등은 사업 정상화 방안을 마련해 나가기로 했다.◇카지노 제도 정비·감독 기반 구축 제주지역 한 카지노 사업장. © News1 도내 카지노 제도의 정비와 카지노업에 대한 체계적인 관리 및 감독 기반도 구축된다. 제주도는 오는 9월부터 조례운용상 미비점 개선을 위해 카지노업 관리·감독 조례 개정을 추진하고, 전자테이블게임(ETG) 규정도 제정하기로 했다. 카지노 운영의 투명성 확보 근거 마련을 위해 전산시설 기준 개편과 카지노업 영업준칙 2단계 개정도 병행 추진하기로 했다.또 카지노업에 대한 체계적인 관리·감독을 위해 연말까지 표준화된 관리·감독 매뉴얼 제정과 분기 1회 카지노업 운영실태 정기점검을 실시하기로 했다.이승찬 제주도 관광국장은 “새로 신설된 관광국은 제주관광의 컨트롤타워이며 제주관광공사, 제주특별자치도관광협회, 제주컨벤션센터, 제주컨벤션뷰로 등 관광 유관기관과 협업으로 지속가능한 제주관광 발전에 노력해 나가고, 관광 현안에 대해서는 수시 기관 간 소통을 통해 해결 방안을 강구해 나갈 것”이라고 밝혔다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 서비스 '워킹그룹 킥오프 회의' 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 생태관광 서비스 '워킹그룹 킥오프 회의' 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 생태관광 서비스 '워킹그룹 킥오프 회의' 개최 기자명 고병수 기자 입력 2016.08.28 14:32 수정 2016.08.28 14:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 생태관광서비스 도입을 위한 워킹그룹 킥오프 회의를 개최하는 모습. (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 25일 도청 회의실에서 제주 생태관광 서비스 도입을 위한 '워킹그룹 킥오프 회의'를 개최해 도의회, 시민단체, 전문가 등과 함께 '환경협치'를 실천하기 위한 워킹그룹을 구성키로 했다.이 프로젝트는 지난 5월 제주도의회 문화관광포럼 정책토론회에서 처음 제안됐고 제주도가 이를 수용해 이뤄졌다는 것,주요 의제로 환경부담금제 도입, 제주세계자연유산지역 탐방객 관리 시스템 구축·입장료 현실화, 직업형 생태관광지역 해설사 일자리 창출 등에 대한 세부논의가 실시됐다. 원희룡 제주도지사는 "워킹그룹 회의에 참석해 위원들에게 감사의 뜻"을 전하며 "제주 생태관광의 새 역사를 열어갈 생산적인 아이디어를 기대한다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[새벽을 여는 사람들] 급증하는 제주도 관광객 렌터카 이용 차질없도록 발로 뛰는 롯데렌터카 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설.부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설/부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼&amp;컨퍼런스 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 정치 사회 IT.과학 국제 문화 연예 스포츠 산업 금융 증권 건설/부동산 유통 경제일반 기자수첩 칼럼 인사 동정 부음 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 산업&gt;자동차 [새벽을 여는 사람들] 급증하는 제주도 관광객 렌터카 이용 차질없도록 발로 뛰는 롯데렌터카 메트로신문 양성운 기자 ㅣ2016-08-30 07:56:38 뉴스듣기 가 가 가 가 가 롯데렌터카 제주 오토하우스 입구에 공항과 오토하우스를 운행하는 셔틀버스가 정차해 있다. 제주도는 국내 최고의 관광지로 꼽힌다. 다양한 볼거리와 편의시설을 고루 갖춘 제주도는 해를 거듭할 수록 방문객이 급증해 올해는 300만명을 훌쩍 넘어 사상 최대를 기록했다. 이처럼 제주도를 찾는 관광객이 증가함에 따라 렌터카 이용객도 급증하고 있다. 롯데렌터카 제주 오토하우스는 최근 일 평균 이용건수가 500건을 넘어설 정도로 많은 사람들이 찾고 있다. 이용자를 위한 서비스 품질 강화를 진행한 결과다. 이에 이른 아침 렌터카를 이용하는 고객을 위해 새벽부터 분주하게 움직이는 제주 오토하우스 직원들을 만났다. 제주 오토하우스 직원이 렌터카를 대여하는 이용객에게 차량에 대한 설명을 하고 있다. ◆주중·주말 오전 출근 인원만 70여명 제주의 새벽은 조용했지만 롯데렌터카 제주 오토하우스는 차량을 점검하는 직원들의 발걸음으로 활기가 넘쳤다. 이른 아침부터 반납되는 차량과 다음 이용객을 맞이하기 위해서다. 실제로, 오전 7시를 넘어서자 건물 내에는 차량을 대여하기 위해 찾은 관광객들로 붐비기 시작했다. 제주 오토하우스는 최첨단 프로세스와 다양한 서비스, 콘텐츠를 갖춘 국내 최대 프리미엄 렌터카 하우스다. 이곳 직원들은 수백대에 이르는 렌터카 차량의 대여와 반납 처리를 위해 여느 직장인보다 빠른 새벽 5시에 하루를 시작한다. 첫 출근조의 직원들은 당일 렌터카 예약과 반납 상황을 일일이 체크하고 세차, 주유 등 대여 차량 준비와 반납되는 차량 목록을 확인한다. 제주 오토하우스를 방문하는 첫 고객은 6시 40분 제주도를 떠나는 비행기를 타는 렌터카 반납 고객이었다. 여유 있는 항공기 탑승을 위해 차량 반납은 약 5시 30분정도부터 이루어진다. 차량 반납을 담당하는 직원들은 고객이 이용한 렌터카 차량의 외관체크나 놓고 가는 물건이 없는지 등을 꼼꼼히 확인해 고객의 빠른 차량 반납을 돕고, 다음 이용고객을 위해 차량 세차와 관리를 담당하는 전담 직원에게 차량을 인계한다. 반납된 차량은 타이어, 워셔액, 와이퍼 체크 등 간단한 차량 점검 및 내·외부 세차, 부족한 연료를 가득 채운 뒤 다른 고객에게 대여될 준비를 마친다. 첫 고객은 렌터카 반납 후 제주공항으로 셔틀버스를 타고 이동해 제주 여행을 마무리한다. 제주에 도착하는 첫 항공편은 아침 7시 15분이다. 이 때부터는 차량 대여와 반납이 원활하게 이루어지기 위해 70여명에 이르는 제주 오토하우스의 모든 직원이 일사불란하게 움직여 편안한 렌터카 이용을 돕는다. 롯데렌터카 제주 오토하우스를 총괄하는 신상훈 지점장은 "공항 데스크와 셔틀 버스, 오토하우스 데스크, 현장 안내 직원 등 성수기에는 70여명의 직원이 현장에서 바삐 움직인다"고 말했다. 이어 반납받은 차량에 대해 "혹시라도 운전자만 알 수 있는 사소한 불편함이나 이상이 느껴진다면 바로 조치하고 있다"며 "무엇보다 안전과 직결된 타이어 관리를 철저히 하고 있다"고 말했다. 롯데렌터카 제주 오토하우스가 업계 최초로 친환경 전기차 '아이오닉 일렉트릭'을 도입해 운영하고 있다. ◆국내 최대 규모·최첨단 프로세스 갖춰 롯데렌터카 제주 오토하우스는 총 면적 1만3443㎡(약 4070평)에 지하 1층 지상 3층의 국내 최대 규모를 자랑하고 있다. 최첨단 프로세스와 다양한 편의시설을 갖춘 국내 최대 규모의 렌터카 하우스로 최초·최고의 다양한 상품과 서비스를 선보이고 있다. 업계 최초로 렌터카 대여/반납 절차를 획기적으로 간소화한 '빠른 서비스', 예약 확인부터 차량 인수까지 고객이 직접 진행할 수 있는 '무인 대여기'와 최첨단 '주차 관제시스템'을 도입했다. 제주 오토하우스는 이 같은 프로세스 개선으로 최고의 '서비스 속도'를 구현하였으며 고객 대기시간 단축 및 고객 이용편의성을 증대했다. 또 가족여행객으로부터 큰 사랑을 받고 있는 파란 '타요' 셔틀버스에 이어 빨간 '가니' 셔틀버스를 신규 투입해 어린이와 함께 제주를 방문하는 고객에게 더욱 특별한 추억을 제공하고 있다. 제주도내에서 가장 많은 2500여대의 다양한 국내외 차량 보유, 영·중·일 3개 국어 응대 인력 운영으로 고객의 편의성을 높였다. 이외에도 업계 최초로 제주 오토하우스 이용고객을 대상으로 롯데마트몰과 함께 전략적 제휴를 맺고 지난해 11월부터 '롯데스마트픽' 서비스를 제공하고 있다. 롯데렌터카 스마트픽 서비스는 제주도 여행 및 출장을 위해 롯데렌터카를 이용하는 고객이 렌터카를 받을 때 롯데마트몰에서 미리 주문한 상품을 함께 픽업할 수 있는 서비스다. 특히 롯데렌터카는 업계 최초로 친환경 전기차 '아이오닉 일렉트릭'을 도입해 운영하고 있다. 친환경 전기차의 고객 경험 확대를 위한 아이오닉 일렉트릭의 단기렌터카는 롯데렌터카의 제주 오토하우스에서 총 20대가 운행되고 있다. 신 지점장은 "업계 최고의 서비스 속도와 차별화된 고객서비스를 제공하는 제주 최초의 프리미엄 렌터카 하우스 '롯데렌터카 제주 오토하우스'가 단순히 차를 빌리는 곳이 아니라, 행복한 제주도 여행을 시작하는 소중하고 특별한 공간으로 자리매김하도록 독보적인 서비스 차이를 만들어 가는데 노력하겠다"고 밝혔다. 메트로신문 양성운 기자 ysw@metroseoul.co.kr 다른기사 보기 기획코너 &gt; 새벽을 여는 사람들 [새벽을 여는 사람들] 송현호 피렌체1684 대표 "즐겁고 행복한 식사 공간으로 기억되고파" [새벽을 여는 사람들] 민수아 미라클웍스 뮤지컬 스튜디오 디렉터…한국의 '라이온킹' 제작을 꿈꾸다 [새벽을 여는 사람들] 김학영 시·군·구청장협의회 정책협력국장…"정책은 골목에서 실현" Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr    ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광 유관기관 합동워크숍 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 관광 유관기관 합동워크숍 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 관광 유관기관 합동워크숍 지화 승인 2016.08.24 20:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도]  제주특별자치도 관광국(국장 이승찬)은 제주관광공사, 제주특별자치도관광협회, 제주국제컨벤션센터, 제주컨벤션뷰로 관계자와 제주도청 및 행정시 관광분야 공무원 등 40여명이 참여한 가운데 8월 24일 제주웰컴센터 대회의실에서 저가관광 개선, 사드배치에 따른 시장다변화 전략 및 관광정책 과제 발굴 등을 위한 워크숍을 개최하였다. 먼저, 저가관광의 문제점에 따른 개선방안에 대해 논의한 결과 도내에서 유통되는 저가관광은 특정 여행사에 의한 단체 관광객 덤핑, 인두세 지급 후 유치, 과도한 쇼핑센터 방문, 질낮은 숙박·음식 제공, 무자격 가이드 고용과 쇼핑수수료(리베이트)에 의존하는 기형적 시장구조로 인해 관광객 만족도 저하 등 제주관광 전체의 이미지 실추로 이어지고 있고, 또한, 국내 중국전담여행사가 중국 현지여행사에 종속적인 관계에 있어 저가관광 구조 개선에 어려움이 있다는데 인식을 같이 하였다. 이에 따라 중국 저가 단체관광객 문제점을 개선하기 위해 초저가단체 여행상품 규제기준 등 법적근거 마련, 지역·테마·부문별 전문여행사 사업 확대, 중국내 아웃바운드 여행사 통제를 위한 중국 지방정부와의 협력을 강화 해 나가기로 하였다. 제주관광공사는 우선, 중국 제주관광 상품 유통(상거래)구조 시장을 조사하여 대응방안을 마련하고, FIT &amp; SIT 유치 및 수용태세 대응을 위해 모바일웹을 이용한 위치기반서비스 등 스마트관광 고도화, 생태·지질 등 지역관광 상품 글로벌화, K스마일 캠페인 환대 등을 추진해 나가기로 하였다. 또한, 제주특별자치도관광협회는 면세점 수수료 구조 개선, 특정 중국계 업체 독점 구조 방지, 공정관광 및 시장질서 확립을 위해 제주공정관광협의회 구성·운영, 도내 향토여행사 대상 우수여행상품 선정, 제주관광불편 선제적 대응을 위해 제주관광불편처리센터를 적극 운영키로 하였다. 사드배치 계획에 따른 시장다변화 전략도 마련된다. 사드배치로 인한 한·중간 마찰로 중국관광객 감소가 우려됨에 따라 제주도에서는 선제적인 대응을 위해 지난 17일부터 도·제주관광공사·관광협회 합동으로 사드대책 실무 콘트롤타워(사드 관련 유관기관 실무협의체)를 구성하여, 매주 1회 사드관련 정보취합 분석 및 향후 대처방안에 대해 논의하고, 위기 대응 마케팅활동을 추진해 오고 있다. 관광시장의 다변화를 위해서 중화권은 동호회 중심 SIT 관광객 유치, 상해·심천 등은 거점지역 다중집합장소 옥외광고를 검토하고, 일본 시장은 항공·크루즈 노선 유치 확대, 서울·부산 경유노선 강화, SIT세일즈 등을, 아시아 구미주는 시장별 맞춤형 콘텐츠 SIT 마케팅 강화를, 크루즈 시장은 개별 여행 위주의 월드와이드 크루즈 유치 확대 방안 등을 논의하였다. 이와 관련해 제주특별자치도 관계자는“이번 워크숍을 통해 저가관광 개선방안, 사드대응에 따른 시장다변화 전략, 정책화가 가능한 관광정책 과제발굴 등 유관기관간 소통하는 유익한 기회가 되었으며, 앞으로 합동워크숍을 정기적으로 개최할 계획”이라고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 중국 내륙 관광시장 공략 '가속화' &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 내륙 관광시장 공략 '가속화' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 중국 내륙 관광시장 공략 '가속화' 기자명 고병수 기자 입력 2016.08.26 14:51 수정 2016.08.26 15:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 지사 방중…제3회 중국 시안 국제 실크로드 관광박람회 참석 (제주=국제뉴스) 고병수 기자 = 중국 내륙에 대한 제주관광시장 홍보와 유치가 가속화될 전망이다.26일 제주도에 따르면 원희룡 지사를 비롯한 제주대표단이 26일부터 28일까지 ‘2016년 제3회 중국 시안 실크로드 국제관광박람회(이하 ‘시안 관광박람회’)‘에 참가한다고 밝혔다.이는 지난 3월 원희룡 지사가 보아오포럼에서 러우친젠 산시성장과 면담시 천혜의 자연유산지역인 제주와 중국 문화유산의 본산인 산시성간 교류협력 강화 논의의 후속으로 산시성 시안을 거점삼아 중국 내륙시장의 제주관광 인지도를 확대하기 위해 마련됐다.이번 시안 관광박람회에는 전 세계 30여개 국가와 중국 24개 성시가 참여한다. 도는 제주홍보관을 마련하고 제주관광공사와 제주도관광협회가 함께 참여해 활발한 제주관광홍보마케팅을 진행할 계획이다.한편, 원희룡 도지사와 제주대표단은 중국 현지에서 제주관광마케팅을 진행한 후 28일 후허핑(胡和平) 산시성장과 만나 양지역 교류협력 강화방안에 대해 논의하고 29일 귀국한다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 역대 최고치 기록 &lt; 일반 &lt; 종합 &lt; 기사본문 - 이코노믹리뷰 상단영역 관리자로그인 전체메뉴 버튼 산업 금융/증권 IT/스타트업 CEO GO-ESG Life &amp; 로그인 로그인 회원가입 기사검색 검색 2022-10-11 12:11 (화) 실시간 이복현 “금융권 횡령·이상외환거래 엄중 조치” 현대엔지니어링, 브랜드 타운 ‘명륜 현대 3차 힐’ 주택 홍보관 오픈 나홀로 웃는 조선업…3분기 실적 ‘호조’ 코스피, 닷새 만에 2200선 하회…코스닥은 4%대 급락 [부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 [부고] 성인모(한국금융투자협회 수석전무) 부친상 셀리버리 "코로나19 면역치료제, 美 FDA 1상 계획 승인" LS, ‘걸프협력회의’와 사업 협력 논의 신라면세점, 2022 KCSI 면세점 부문 8년 연속 1위 “올가을 맘스터치와 함께 감성 캠핑 즐기자” 본문영역 이전 기사보기 다음 기사보기 제주도 관광객 역대 최고치 기록 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주도 관광객 역대 최고치 기록 기자명 이효정 기자 입력 2016.08.20 10:32 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 올여름 제주도를 방문한 피서 관광객이 역대 최고치를 기록했다.20일 제주도관광협회에 따르면 지난달 제주를 방문한 관광객은 153만8744명이다. 이는 지난해 같은 기간 107만1464명과 비교해 43.6％로 증가한 수치다.내국인은 113만3903명으로 지난해 같은 기간(98만5708명)과 비교해 15％ 증가했다.외국인은 40만4841명으로, 지난해 7월 8만5756명과 비교해 4배 가까이 늘었다. 하루 단위 관광객도 지난달 30일 하루 5만9507명(내국인 4만4489명, 외국인 1만578명)이 제주를 방문, 역대 최고 기록을 달성했다.지난달 31일은 5만9404명(내국인 4만6882명, 외국인 1만2522명)이 방문해 일일 관광객 역대 2위다. SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이효정 기자 hyo@econovill.com 다른기사 보기 구독신청하러 가기 경제를 리뷰, 미래를 본다 © 이코노믹리뷰 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 종합 인기뉴스 1 군비증강의 시대가 온다 2 [CEO파일] 최수연 네이버 대표 "멀티플 시너지 본격 가동" 3 키이우 곳곳 미사일 폭격..우크라 전쟁 점입가경 4 [오늘날씨] 찬바람 쌩쌩…따뜻하게 입어요 5 [오늘날씨] 중부서해안 비 시작…오후 전국으로 확대 ER포토 [ER포토]조니워커 아시아 최대 영화축제 함께한다! [ER포토]조니워커, 부산국제영화제 공식 후원 Investing.com 한국어 가 운영하는 기술적 분석 요약 위젯 하단영역 하단메뉴 회사소개 채용정보 기사제보 광고문의 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 UPDATED. 2022-10-11 12:11 (화) 매체정보 서울특별시 종로구 삼일대로 469 3F, 이코노믹리뷰 (경운동,서원빌딩) 대표전화 : 02-6321-3000 팩스 : 02-6321-3001 기사문의 : 02-6321-3042 광고문의 : 02-6321-3012 등록번호 : 서울 아 03560 발행인·편집인 : 주태영 광고마케팅국 : 고동훈 청소년보호책임자 : 김상곤 이코노믹리뷰의 모든 콘텐츠는 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이코노믹리뷰. All rights reserved. 위로 전체메뉴 전체기사 산업 일반 전자 자동차 항공/조선/철강 에너지/화학/정유 중소기업 금융/증권 일반 1금융 2금융 증권 IT/스타트업 일반 IT/스타트업 통신 게임 블록체인 건설/부동산 일반 건설 부동산 생활경제 일반 제약/바이오 일반 종합 일반 ER포토 인사/부고 오피니언 일반 편집국에서 기자수첩 전문가칼럼 라이프 일반 서평 운세 타임피스 OTT픽 플레이G 헬스케어 IT여담 커버스토리 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>7월 제주도 찾은 관광객 수 154만 명…역대 최고치 | JTBC 뉴스 서비스 메뉴 바로가기 본문 바로가기 아티클 바로가기 프로그램 목록 바로가기 신문 중앙일보 중앙SUNDAY 일간스포츠 Korea Joongang Daily The Korea Daily 조인디 방송 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF JTBC worldwide 멀티플렉스 &amp; 레저 메가박스 필름 소사이어티 클래식 소사이어티 휘닉스 호텔앤드리조트 휘닉스 평창 휘닉스 섭지코지 매거진 &amp; 출판 월간중앙 이코노미스트 포브스코리아 중앙북스 엘르 바자 코스모폴리탄 에스콰이어 전문 콘텐트 조인스랜드 헬스미디어 차이나랩 어문연구소 영어의 신 ESU 서비스 JOINS PRIME 썰리 fol:in JTBC NOW JTBC NEWS OOH MEDIA 중앙멤버십 JJ라이프 렛츠고시골 TJ4대전충청 CLOSE JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF 중앙그룹 브랜드 회원가입 로그인 JTBC 뉴스 방송 편성표 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC Golf 온에어 검색열기 키워드 검색하기 닫기 뉴스홈 속보 정치 경제 사회 국제 문화 연예 스포츠 날씨 다시보기 JTBC 뉴스룸 아침&amp; 썰전 라이브 정치부 회의 보도특집 오픈 저널리즘 타임라인 이슈 VOD 이슈 기자 구독 뉴스제보 JTBC SNS 여론조사 JTBC 뉴스룸 VOD 다시보기 AOD 다시듣기 팩트체크 밀착 카메라 비하인드+ 월페이퍼 카드뉴스 영상구성 랭킹 APP 제보하기 7월 제주도 찾은 관광객 수 154만 명…역대 최고치 입력 2016-08-20 15:16 크게 작게 프린트 메일 URL 줄이기 페이스북 트위터 복사 URL 줄이기 레이어 닫기 지난달 제주도 관광객이 153만여 명으로 지난해 같은달보다 43.6% 증가했습니다.7월 관광객 수로 역대 최고치입니다.제주도 관광협회에 따르면 내국인 관광객이 지난해보다 15% 늘어나 113만명이 넘었고, 지난해 메르스 여파로 줄었던 외국인 관광객도 약 40만명으로 3배 넘게 늘었습니다. 관련기사피서지 불법 '마트 픽업' 극성…사고 나도 보상 못 받아 수영금지 표지판 앞 다이빙…물놀이 안전 수칙은 뒷전 더위에 백화점·카페로…'폭염 특수' 맞은 업체들 눈길 "더위가 싹 물러가요" 제주 용천수, 이색 피서지로 인기 이전 다음 JTBC 뉴스 유튜브 공식 채널 구독하기 JTBC 뉴스 카카오톡 공식 채널 친구추가 JTBC 뉴스 페이스북 공식 채널 좋아요 프린트 메일 페이스북 트위터 URL 줄이기 복사 URL 줄이기 레이어 닫기 JTBC 핫클릭</t>
+  </si>
+  <si>
+    <t>[이사람-김희현 제주도의회 문화관광스포츠위원장] “눈높이 맞는 문화관광 정책 개발”-국민일보 시사 시사 &gt; 전체기사 [이사람-김희현 제주도의회 문화관광스포츠위원장] “눈높이 맞는 문화관광 정책 개발” 입력 : 2016-08-21 17:33 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 최근 몇 년 사이 전국 최고의 핫플레이스가 됐다. 1300만에 이르는 관광객 덕분에 투자유치도 늘고 제주에 살겠다고 아예 짐을 꾸려 이주하는 인구수도 부쩍 늘었다. 특별자치도 출범과 함께 중앙정부가 지니고 있던 4500여건에 달하는 권한도 도지사에게 이양되면서 겉으로는 자치도의 면모를 모두 갖춘 것 같이 보인다. 하지만 이러한 양적 팽창과 개발에 따른 부작용과 병폐도 심각하다는 여론이 높다. 우려의 목소리는 지역의 공직사회에서는 물론 학계, 시민단체, 언론 등 전 분야에서 불거지고 있다. 김희현(58·사진) 제주특별자치도의회 문화관광스포츠위원장은 현재 제주가 안고 있는 가장 큰 문제점이 “개발과 발전에 대해 도민들이 느끼고 있는 낮은 체감도”라고 지적했다. 김위원장은 “관광객이 급증하고 단기간에 많은 인구가 유입되면서 무분별한 개발이 이뤄지고 있다”면서 “이로 인해 항공서비스에 대한 접근성 하락, 교통 혼잡, 자연환경 훼손, 쓰레기 처리문제 등 다양한 분야에서 사회문화적 갈등과 환경문제가 대두되고 있다”고 말했다. 특히 토지를 중심으로 한 부동산 가격의 폭등은 현재 제주가 안고 있는 최대 현안이라고 그는 강조했다. 지금부터라도 도민들과 함께 제주 미래의 발전방향과 어젠다를 공유함으로써 제주의 동력을 제대로 발휘할 수 있도록 노력해야 한다는 게 그의 주장이다. 관광개발학을 전공한 전문가로 제주도관광협회 상근부회장, 제주관광공사 이사를 거쳐 현재 재선 의원으로 후반기 문화관광스포츠위원장을 맡고 있는 그는 관광분야에 있어서만큼은 최고로 꼽힌다. 지역주민들의 대변인으로서 의회에서도 항상 쓴소리를 마다하지 않는 뚝심 있는 인물로도 유명하다. 그는 제주에 있어 지금은 물론 훗날 우리 자녀들까지 먹여 살릴 수 있는 분야가 바로 ‘문화관광체육’이라고 강조했다. 물론 스스로가 관광전문가로서 평생을 살아온 배경도 있겠지만, 제주의 미래 먹거리로써 문화관광체육 분야가 중요한 축을 담당하게 될 것이라는 예측은 이미 공공연한 사실이다. 그는 제주도정에 있어 최소한 자신의 전문 분야만큼은 도민들이 체감할 수 있고, 모두가 상생할 수 있도록 질적 성장을 추구하는 데 앞장설 계획이라고 밝혔다. “이제는 양적 성장에만 집중할 때가 아닙니다. 미래성장동력이 될 수 있는 문화관광체육 분야를 적극 육성함으로써 도민들의 삶의 질을 향상시키는 데 주력해야 합니다. 무분별한 개발로 인해 상대적 박탈감에 빠진 도민들의 시름을 덜게 하는 동시에 미래의 우리 아이들 세대에게 희망과 비전을 심어줘야 할 의무가 있습니다.” 실제로 제주에는 전역에 걸쳐 개발이 가속화되면서 서민들을 중심으로 도민들의 주거불안이 큰 사회문제로 대두되고 있다. 이에 따라 현재 제주도 차원에서 도민들의 주거불안 문제 등을 해결하기 위해 ‘제주형 주거복지 종합계획’을 수립, 연 1만 세대를 공급하겠다고 공언한 바 있다. 도의회 차원에서도 ‘제주특별법 제도개선 및 토지정책 특별위원회’를 구성하고 관련 TF까지 가동해 대책마련에 분주하다. 하지만 이러한 주거불안문제 해결을 위해서는 주택문제의 근본 원인에 대한 면밀한 진단과 실질적인 해소방안 마련이 절실하다는 게 그의 견해다. “도 차원의 대책에 앞서 주택문제에 대한 정확한 원인진단과 실태파악이 선행돼야 합니다. 특히 실수요자인 도민들에게 원활한 공급이 이루어지는, 즉 공공성이 강화된 양질의 주택공급정책이 수립돼야 합니다.” 한편 김위원장은 ‘김영란법’으로 불리는 부정청탁금지법 시행을 앞두고 제주의 1차 산업과 관광산업 등을 중심으로 도민경제에 부정적인 영향을 미칠 것을 우려했다. 특히 관광마케팅 홍보수단의 하나인 팸투어나 관광설명회 개최 등이 금품수수의 일환으로 해석될 논란의 여지가 있어 명확한 가이드라인이 필요하다는 주장이다. 그는 “법 적용에 따른 지역사회의 파장을 예의주시하고 피해가 예상되는 1차 산업과 관광산업 분야에 대한 철저한 대응책을 마련해야 한다”고 말했다.제주=양병하 기자 GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 관광기념품 공모전 당선작 선정 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도·관광협회, 관광기념품 공모전 당선작 선정 (제주=뉴스1) 고경호 기자					| 2016-08-11 11:49 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주특별자치도와 제주관광협회가 개최한 제19회 제주특별자치도 관광기념품 공모전에서 금상을 수상한 에 일반기념품 분야는 홍성훈씨의 ‘제주 풍경 일러스트 종이액자(사진 위)’가, 테마(해녀)기념품 분야는 이재호·고난영씨의 ‘제주 해녀 캐릭터(숨비, 소리) 이야기’.© News1 제주특별자치도와 제주관광협회는 제19회 제주특별자치도 관광기념품 공모전 당선작을 선정했다고 11일 밝혔다. 올해 3월28일부터 8월3일까지 공모를 통해 접수된 150개 작품(일반기념품 113개·테마(해녀)기념품 37개)에 대해 도내 관련 대학교수, 기념품 관련 단체 및 업체 등으로 구성된 10명의 심사위원이 상품성, 디자인, 창의성 등을 종합적으로 평가했다.그 결과 금상에 일반기념품 분야는 홍성훈씨의 ‘제주 풍경 일러스트 종이액자’가, 테마(해녀)기념품 분야는 이재호·고난영씨의 ‘제주 해녀 캐릭터(숨비, 소리) 이야기’가 선정됐다.‘제주풍경 일러스트 종이 액자’는 아름다운 제주풍경을 일러스트 작업으로 재해석해 추억 속의 제주를 사진으로 인화하고, 제주의 명소를 종이액자에 디자인해 관광객들이 제주를 오래 기억할 수 있도록 했으며 저렴한 가격으로 상품성에 높은 점수를 받았다. ‘제주해녀 캐릭터(숨비, 소리)이야기’는 ‘숨비, 소리’라는 제주해녀 캐릭터를 종이칼, 열쇠고리, 휴대전화 고리 등의 관광기념품으로 제작했으며 제주 해녀들의 희로애락을 담아 그 가치를 높이는데 기여했다고 평가돼 호평을 얻었다.은상 작품은 △일반기념품 분야 염상익의 ‘허니컴퍼즐’, 지경섭씨의 ‘제주 화산석 송이 칼라스톤’ △테마기념품 분야 김태양씨의 ‘해녀 수경 우드스피커’, 엄윤정씨의 ‘해녀인형 만들기’ 등이다.이밖에 동상 4개 작품과 장려상 8개 작품, 입선 16개 작품 등 총 34개 작품도 선정됐다. 다만, 이번 공모전에서는 제주를 대표하는 관광기념품으로 대상에 선정할 만한 작품이 없다는 심사위원들의 종합적 의견에 따라 대상은 선정하지 않았다.이번 공모전의 수상작에 대한 시상은 이달 말에 개최할 예정이며 향후 각종 전시 및 홍보 지원과 상품개발자금 지원 등의 특전이 주어진다. 금상과 은상에 선정된 작품들은 제주 관광기념품을 대표해 대한민국 관광기념품 공모전에 출품하게 된다.제주도 관계자는 “지속적인 관광기념품 공모전을 개최해 제주의 가치를 널리 알릴 수 있는 작품이 개발될 수 있도록 노력하겠다”고 밝혔다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 관광진흥기금 68업체 280억 융자확정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 하반기 관광진흥기금 68업체 280억 융자확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 하반기 관광진흥기금 68업체 280억 융자확정 기자명 고병수 기자 입력 2016.08.19 11:16 수정 2016.08.19 11:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 행정부지사를 위원장으로 하는 제주관광기금 운용 심의위원회를 18일 개최해 하반기 융자지원 계획을 확정했다고 19일 밝혔다. 확정된 융자금액은 68개 업소 280억 원이다.이 규모는 올해 상반기 259억 원과 비슷한 규모이나 렌터카업체 전기차 구입 융자 200억 원을 제외하면 적은 규모다.지금까지 매년 하반기에는 상반기 융자지원액보다 큰 폭으로 감소해왔고 올해에도 동일한 현상이 반복됐다.이 같은 이유는 관광 극성수기를 맞아 자금사정이 호전돼 관심이 떨어지는 것으로 道는 추정하고 있다.이에 작년 상반기에도 융자지원 금액은 917억 원이었으나 하반기는 387억 원으로 상반기의 42% 수준이라는 것. 도는 올해 융자규모가 축소된 것은 숙박시설 과잉공급 우려에 따른 숙박시설 신축에 대한 융자지원이 금지되고 있기 때문으로 분석했다.지금까지 관광숙박 시설 신축에 대한 융자가 전체 융자액의 80% 정도를 차지해 왔으나 올해부터 융자지원이 금지돼 융자규모가 큰 폭으로 줄어들고 있는 실정이다.이번 융자지원 확정 내용을 세부적으로 살펴보면 경영안정자금 분야의 경우 총 59개 업체 46억 원이다.이중 농어촌민박 23개소 7억 원, 여행업 11개소 7억 원, 일반숙박업 2개소 1억 원, 관광숙박업 3개소 6억 원, 휴양펜션업 3개소 2억 원이며 노후 전세버스 교체를 위해 17개소 31대 24억 원을 지원한다. 또한 신축, 개축, 개보수를 포함한 건설자금 분야의 경우는  6개 업체에 31억 원이다.   특히 올해 하반기부터 시행한 렌터카업체 및 법인관광사업체 대상 전기자동차 구입지원 분야에 3개소 202억 원을 융자지원 한다.관계자는 "앞으로 제주도는 지속적인 제도개선을 통해 주민체감형 기금사업을 발굴해 나가고, 조례를 개정해 현장행정과 밀접한 행정시에서 기금을 집행하는 방안을 강구해 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 日 골프 관광객 유치 마케팅 활동 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도·관광협회, 日 골프 관광객 유치 마케팅 활동 (제주=뉴스1) 고경호 기자					| 2016-08-07 11:48 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주특별자치도와 제주특별자치도관광협회(회장 김영진), 도내 골프장 및 여행업계 관계자들로 구성된 민관 홍보단이 지난 2일부터 5일까지 열린 일본 ‘도쿄 스포츠박람회(SPORTEC2016)’에서 골프 관광객 유치 활성화를 위한 비즈니스 마케팅을 전개하고 있다. © News1 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 도내 골프장 및 여행업계와 공동 민관 홍보단을 구성, 지난 2일부터 5일까지 일본 도교에서 열린 ‘도쿄 스포츠박람회(SPORTEC2016)’에서 골프 관광객 유치 활성화를 위한 비즈니스 마케팅을 전개했다고 7일 밝혔다.  이번 박람회는 일본에서 개최되는 가장 큰 스포츠 및 피트니스 박람회이다.제주 홍보단은 현지 주요 골프업계와 레저스포츠 기관·단체, 동호회 등을 대상으로 공격적인 판촉 활동을 벌이는 한편 향후 다양한 골프 관련 협력 방안 모색을 위한 인적 네트워크를 구축했다.특히 키타오카 토시아키 전일본골프연습장연맹 이사는 “한·일 간 스포츠 문화 교류를 희망하고 있으며 제주골프 상품 기획과 함께 400개사의 골프연습장 대표들에게 제주 골프의 우수성과 매력을 적극적으로 전파할 것”을 약속했다. 제주 홍보단은 또 일본 최대 골프 미디어 매체인 GDO(Golf Digest Online) 관계자와의 간담회를 통해 일본지역 전역으로 온라인을 활용한 제주 골프장을 홍보할 수 있는 여건을 마련했다.실제 오는 9월 1일부터 5일까지 GDO 관계자들이 제주를 방문, 도내 골프장 방문 시찰 등을 추진하기로 했다. 김영진 제주관광협회장은 “앞으로 민관 홍보단은 이번 방문 세일즈를 통해 실질적인 일본지역 골프 관광객이 유치될 수 있도록 후속조치를 철저히 해 나갈 계획”이라고 말했다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 연동의 푸르름 관광하고 제주도 맛집에서 맛있는 관광을 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 연동의 푸르름 관광하고 제주도 맛집에서 맛있는 관광을 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 제주도 연동의 푸르름 관광하고 제주도 맛집에서 맛있는 관광을 기자명 문화뉴스 이민혜 입력 2016.08.17 02:05 수정 2016.08.17 02:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 푸르름이 살아 숨쉬는 제주 초원과 바다 [문화뉴스] 대한민국의 가장 큰 섬 제주도. 최근 우리나라에서 가장 살고 싶은 도시 1위로 꼽히기도 했으며, 제주도로 거주지를 옮기는 연예인도 많아지고 있다.제주도는 집에 대문이 없이 출입구 양쪽에 통나무 3개를 끼워 넣어 두는 독특한 풍속이 있는데, 통나무 1개가 있으면 '가까운 곳에 외출했음'이란 뜻이고 2개가 있으면 '먼 곳에 외출했음', 3개는 '온종일 집을 비운다'는 뜻이라고 한다.인문·문화 등 다양한 관광 자원이 있다. 자연경관으로는 한라산 국립 공원, 용암 동굴, 폭포, 기생 화산 등이 있으며, 인문 경관으로는 한라산의 대규모 목장과 서귀포 일대의 감귤밭이 있다. 또한, 제주도의 한라산 천연 보호 구역, 거문 오름 용암 동굴계, 성산 일출봉 응회구 이 세 곳은 유네스코로 등재되기도 하였다.제주도는 해안도로를 따라 많은 관광지와 해수욕장이 있다. 해안도로를 따라 시원한 여행을 즐겼다면 제주의 오랜 역사와 신선함이 가득한 즐길 거리를 찾아가 보자.제주시 연동에 위치한 한라수목원은 제주도 자생식울의 유전보존과 관찰을 위한 자연 학습장으로 활용하기 위해 1993년 개원했다고 한다. 872종 5만여본이 식재, 전시되어있다. (이중 어린모묙, 야생초본류 제외) 대지면적만 14만9782㎡에 달하는 규모의 수목원이다. 수목원 관람객들을 위한 삼림욕장,시청각실,휴게실,체력단련시설,편의시설등이 갖추어져 있다. 입장료는 무료이며 관람 시간은 오전 9시~오후 6시이다. 수목원을 둘러보고 색다른 관광을 원한다면 제주 러브랜드도 가볼 만하다. 성인들을 위한 현대적 감각의 性을 주제로 한 테마조각 공원이다. 제 주러 브랜드는 올바른 성문화의 인식을 높이고 예술적으로 승화된 현대적 감각의 성 예술 작품들로 꾸며져 있다. 환상적인 야간 조명과 이국적인 조성을 도입하여 신비로운 연출을 극대화하였으면 공원 전체를 하나의 거대한 ART 공간으로 활용하였다. 관람 시간은 오전 9시~오후 24시까지이고, 입장료는 9천원이다. 단체 30인 이상,65세이상,유공자 할인이 적용된다. 수목원과 러브랜드를 관광하고 그 주변에 검은오름과 도깨비 도로가 있으니 함께 관광하는 것도 좋다.제주도는 우리나라의 보물이라 불릴 만큼 볼거리, 먹을거리가 가득하다. 한국의 아름다운 도로로 선정된 숲길인 사려니숲길, 우리나라 전통 차 문화를 체험할 수 있는 오설록 티 뮤지엄, '제주도 무태장어 서식지'라는 이름으로 천연기념물로 지정된 천지연 폭포 등 수많은 관광지가 있으며, 감귤, 한라봉, 유자, 백년초 등 다양한 특산물이 있다. 또한, 넓게 펼쳐진 초원에서 자라는 말도 제주도만의 특산물 중 한 가지다.문화뉴스 이민혜 기자 pinkcat@mhns.co.kr 제주도의 '특산물'이라고 하면 전복, 갈치, 고등어 등 수산물이 가장 유명한데, 이러한 수산물과 함께 제주 흑돼지를 한곳에서 맛볼 수 있는 제주도 맛집인 '이금돈지'가 있다. 제주공항과 10분 거리. 메뉴로는 돔베고기와 전복 성게물회, 통갈치구이, 전복 뚝배기 등 제주도의 특산물로 이루어진 음식들로 가득하다. '이금돈지'의 인기 있는 메뉴인 돔베고기는 갓 삶은 흙돼지고기를 나무 도마에 얹어 덩어리째 썰어 먹는 제주도 현지 음식으로 '돔 베'라는 말은 '도마'의 제주 방언이다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 문화뉴스 이민혜의 다른 기사 보기 문화뉴스 이민혜 pinkcat@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, '생태관광지원센터' 전문인력 양성 과정 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, '생태관광지원센터' 전문인력 양성 과정 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, '생태관광지원센터' 전문인력 양성 과정 운영 기자명 고병수 기자 입력 2016.08.15 17:26 수정 2016.08.15 17:28 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도 생태관광지원센터는 13일부터 오는 12월 5일까지 '생태관광 전문인력 양성' 전문과정을 운영한다고 15일 밝혔다.생태관광 전문인력 양성과정은 제주도의 자연환경을 주체적으로 보전하고 제주 미래비전이 지향하는 청정과 공존의 가치를 통해 지속가능한 생태관광을 전문적으로 기획·진행·컨설팅할 수 있는 인력 양성을 목표로 하고 있다.이를 위해 기초과정과 전문 과정을 구분해 운영해 지난 7월 12일부터 생태관광 정의, 생태관광 정책 등의 내용으로 운영된 기초 과정에는 24명이 수료했다. 이중 14명이 전문과정을 수강할 예정이다. 이번 전문 과정은 8월 13일부터 12월 5일까지 선흘1리 동백동산습지센터에서 생태관광 기획, 답사, 프로그램 진행 실무 등 총 60시간의 과정으로 진행될 계획이다.한편 '제주특별자치도 생태관광 육성 및 지원에 관한 조례'에 따라 설치된 생태관광지원센터는 현재 사단법인 제주생태관광협회에서 위탁 운영 중으로 전문인력 양성교육, 제주 생태에 대한 자원조사, 민간 협력 사업 등 다양한 사업을 추진하고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광약자 배려안 수립한다 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 관광약자 배려안 수립한다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 관광약자 배려안 수립한다 기자명 조문호 기자 입력 2016.08.11 10:28 수정 2016.08.11 10:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 장애물 없는 관광환경 조성 5개년 계획 [제주도민일보=조문호 기자] 제주도는 장애인이나 노인 등 관광약자를 위해 ‘장애물 없는 관광환경 조성 5개년 계획’을 수립한다고 11일 밝혔다.이는 접근능력이 어려운 관광약자의 관광 향유권을 확대하고, 2025년 65세 이상 인구가 전체 인구대비 20% 이상의 ‘초고령 사회’ 진입이 예상됨에 따라 실버관광 기반을 사전에 구축해 선제적으로 대응하기 위한 일환이다.이 계획은 장애인, 어르신, 임산부, 영․유아 가족 등 모든 사람의 이동 불편이나 제약 없이 관광을 할 수 있는 장애물 없는 관광지를 조성해 나가기 위한 종합계획이다. 내년부터 2021년까지 5개년 동안 추진해야 할 주요 목표를 설정하고 재정투자와 연계된 구체적인 실행방안을 포함하게 된다.한국관광공사에서 주관한 ‘2015 장애물 없는 관광환경 실태조사’를 분석하고, 공영관광지, 사설 관광지, 숙박․음식점, 이동수단, 서비스 분야로 구분한 계획을 수립해 ‘장애물 없는 관광시설 및 서비스 가이드라인’에 맞게 정비해 나갈 예정이다.특히, 관광국을 중심으로 교통․장애인 관련부서 및 행정시와 제주관광공사, 제주관광협회 등 유관기관과 전문가가 참여하는 TF를 구성해 계획 수립을 추진해 나가게 된다.도 관계자는 “그 동안 추진했던 관광약자를 위한 정책의 미흡한 점을 발굴하고 개선해 나갈 예정”이라고 말했다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광객 수요 증가하는 제주도 위미항, 호텔분양정보 찾는 소비자 늘어. - RPM9 전자신문엔터테인먼트 트위터 페이스북 네이버포스트 인스타그램 RSS 검색 자동차 국산차 수입차 신차소식 시승기 모터스포츠 부품∙용품 기획 모터쇼 동영상 게알15 무알15 스알15 앱알15 베콘TV 영상뉴스 많이 본 영상 게임 문화·예술 ET-ENT영화 ET-ENT클래식 ET-ENT오페라 ET-ENT뮤지컬 ET-ENT연극 ET-ENT무용 ET-ENT발레 ET-ENT갤러리 ET-ENT국악 ET-ENT스테이지 ET-ENT드라마 ET-ENT인터뷰 연예 라이프 경제·사회 포토 e비즈니스 라이프 HOME &gt; 라이프 &gt; 생활문화 Twitter Facebook Mail Print 관광객 수요 증가하는 제주도 위미항, 호텔분양정보 찾는 소비자 늘어. 발행일 : 2016-08-18 17:35:00 확대 축소 제주도는 매년 관광객 수요가 10%이상 급증하고 있다. 이에 따라 제주도 호텔분양에 대한 정보를 찾는 고객도 늘어나는 추세다. 실제 제주도 관광협회의 발표에 따르면 2014년 제주도를 방문한 관광객은 1227여만명, 지난해엔1363만여명이었다. 전년 대비 증가율은 11.1%.. 이 때문에 제주도 숙박시설 공급량은 급증하는 수요에 비해 여전히 부족하다는 게 전문가들의 평이다. 특히 제주도 서귀포시 호텔 공급이 부족한 실정이다. 서귀포시는 제2신공항을 시작으로 서귀포 혁신도시, 영어교육도시, 예래 휴양형 주거단지, 서귀포 관광미항 헬스케어타운, 강정민군 복합미항, 신화역사공원, 위미항 다기능어항 개발사업 등 풍부한 관광컨텐츠 개발 계획이 집중돼 있다. 서귀포 호텔 공급량을 시급히 늘려야한다는 전문가들의 의견이 많다. 이에 따라 주목받는 곳이 있다. 바로 서귀포 위미항에 자리할 분양호텔인 코업시티 호텔하버뷰다. 이 호텔은 국내 부티크&amp;비즈니스호텔을 20년 이상 운영해 온 전문기업 코업이 시행을, 건설전문회사 한일 종합건설이 시공을 맡는다. 이 호텔은 지하 1층부터 지상 9층까지 총 306개의 객실로 구성되며, 레지던스, 스탠다드, 코지룸, 스파룸 등 4가지 스타일의 인테리어로 구성된다. 호텔 관계자는 “서귀포의 관광객 수요가 증가한 만큼 숙박시설의 추가 공급은 불가피할 것으로 보인다”며 “코업시티 호텔하버뷰는 이곳을 찾는 관광객들의 니즈를 충족시킬 대안이 될 것”이라고 설명했다. 박형준 기자 (phj@rpm9.com) © RPM9 무단전재 및 재배포금지 Twitter Facebook Mail Print 최신포토뉴스 RPM9 RANKING [임의택의 車車車] 쌍용인데 이 디자인과 이 가격???...쌍용 토레스 시승기 모비톡, '갤럭시노트10' 100대 한정 땡처리 진행…10만원대 판매 모비톡, '갤럭시S21' 더블할인 진행…10만원대 판매 모비톡, '아이폰12' 빅세일 이벤트 진행…10만원대 판매 NH농협은행-포스코케미칼, '금융지원 업무협약' 체결 모비톡, '갤럭시노트20' 10만원대 그랜드세일 진행 KB국민은행, '2022년하반기 채용 계획' 발표 회사 정보 회사소개 광고안내 홍보/제휴문의 기사제보 개인정보취급방침 (주)전자신문인터넷 | 등록번호 : 서울, 아03963 | 등록일 : 2015년 11월 03일 | 제호 : RPM9 | 발행·편집인 : 심규호 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 | 발행일 : 2009년 09월 01일 | 대표전화 : 02-2168-9491 | 청소년보호책임자 : 소성열</t>
+  </si>
+  <si>
+    <t>"제주도 골프관광, 만족스럽지만 비용은 비싸다" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "제주도 골프관광, 만족스럽지만 비용은 비싸다" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 "제주도 골프관광, 만족스럽지만 비용은 비싸다" 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.08.11 12:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 골프관광 연간 9783억 경제파급효과..1인당 72만원 지출 캐디 선택제 찬성 51%..."개별소비세 완전 면제 필요" 제주도를 찾은 골프관광객들은 제주 골프환경에 대해 전반적으로 만족하면서도, 가격이 비싸다는 인식을 갖고 있는 것으로 나타났다.제주발전연구원 최영근 전문연구위원은 11일 '제주지역 골프관광 지역경제 파급효과 분석 연구' 보고서를 통해 2015년 기준 제주지역 골프관광으로 인한 연간 생산유발효과는 9783억7000만원, 부가가치유발효과는 4832억6000만원으로 분석됐다고 밝혔다.또 취업유발효과는 1만3459명에 이르는 것으로 나타났다.이본 연구에서는 올해 2월16일부터 5월4일까지 제주를 찾아 골프관광을 한 이용객 중 526명을 대상으로 한 의견조사도 실시됐는데 먼저 골프장 이용시 고려 사항으로는 △가격(32.3%), △코스관리 상태(22.9%), △코스설계(7.6%), △접근성(6.7%), △캐디 등 직원의 친절(6.4%) 등으로 나타났다.1인당 총 지출비용은 평균 72만7100원으로 조사됐다.체류기간은 2박3일(56.7%)이 가장 많았고, 이어 1박2일(31.9%), 4박5일(9.5%) 순이다.골프장 1회 이용 시 지불비용은 △10～15만원 미만(44.7%), △15～20만원 미만(23.9%), △10만원 미만(16.0%), △30만원 이상(6.1%) △25～30만원 미만(4.7%) 등으로 나타났다.이어 제주지역 골프관광 전반적인 만족도를 묻는 질문에는 '만족' 55.1%, '보통' 30.4%, '불만족' 14.4%로 조사됐다. 보통 이상의 만족도가 높게 나타난 점이 눈길을 끈다.반면 불만족 이유로는 △골프비용이 비싸서 △편의시설 이용료 과다 △좋지 않은 날씨 △캐디의 전문성 결여 및 불친절 △좋지 않은 스코어 등의 순으로 답했다.캐디 선택제에 대해서는 찬성(51.3%)의견이 반대(27.6%) 의견보다 훨씬 많았다.골프장 입장객에 대한 개별소비세 및 관련세 부과에 대해서는 반대의견이 78.1%로 압도적으로 높았다. 찬성의견은 9.5%에 불과했다.골프장 입장객 개별소비세는 제주지역 골프산업 경쟁력 강화를 위해 지난해까지 완전 면제돼 오다 올해부터 내년까지는 25%(5280원)이 부과되고 있다.최영근 연구원은 "개별소비세를 완전(100%) 면제받기 위한 제주지역 골프관광 지역경제파급효과분석 등 논리 개발이 필요하다"고 말했다.최 연구원은 또 "개별소비세 완전 면제, 파격적인 골프비용 인하, 캐디 및 카트 선택제 확대 도입 등을 통해 가격경쟁력 강화 방안을 적극적으로 강구할 필요가 있다"고 제언했다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>‘사드 논란’에 불똥 튄 제주도...中 경제보복 우려에 관광업계 비상 | Save Internet 뉴데일리 기사 공유하기 페이스북 트위터 카카오 블로그·카페 밴드 메일 https://biz.newdaily.co.kr/site/data/html/2016/08/12/2016081210041.html 주소 복사 주소가 복사되었습니다. 원하는 곳에 붙여넣기 하세요 검색 최신기사 정책 산업 부동산 IT·전자 금융·증권 유통 에너지·화학 제약·의료 오피니언 뉴데일리 뉴데일리경제 뉴데일리TV 대구·경북 충청·세종·강원 시장경제신문 브랜드브리프 칸라이언즈 회사소개 광고 및 제휴 Copyright © Newdaily All rights reserved. ‘사드 논란’에 불똥 튄 제주도...中 경제보복 우려에 관광업계 비상 문화 양원석기자의 다른 기사 보기 입력 2016-08-12 13:39 | 수정 2016-08-12 16:48 ▲ 지난 5월31일, 농협 제주지역본부 관계자들이 제주항 국제여객선터미널에서 크루즈 여객선 코스타 아틀란티카호를 타고 입항한 2천500여 중국 관광객들에게 제주산 청정 축산물 요리를 제공하고 있다. ⓒ 사진 연합뉴스 한해 300만명에 넘는 외국인 관광객을 유치하고 있는 제주도가, 미국의 ‘고고도미사일 방어체계’ 사드(THADD) 도입에 따른 중국 측의 경제보복 우려에, 긴장을 떨치지 못하고 있다.제주도는 전국 광역지방자치단체 가운데 최초로 도 본청에 관광국을 신설할 만큼, 지역경제에서 관광산업이 차지하는 비중은 절대적이다.특히 연간 300만명에 달하는 외국인 관광객 중 85%인 220만명이 중국인일 만큼, 제주 관광업계의 대중국 의존도는 매우 크다.때문에 제주도는 우리 정부의 사드 도입에 노골적으로 불쾌감을 표시하고 있는 중국정부의 움직임에 촉각을 곤두세우고 있다.이런 상황에서 최근 주한중국대사관이, 한국인을 상대로 상용(비지니스) 복수비자 발급 업무를 대행해 온 중국기업 한국 영업소의 자격을 취소하면서, 사드 도입에 따른 중국 정부의 경제보복 우려가 더 커지고 있다.업계에 따르면 주한중국대사관은 지난 3일, 한국인을 상대로 상용 복수비자 발급에 필요한 중국기업으로부터의 초청장 발급을 사실상 독점적으로 대행해 온, 중국 기업 무발국제여행사유한책임공사의 한국 영업소 자격을 취소했다.이 일로 국내 기업 임직원들은, 현지의 협력업체를 통해 초청장을 받아야만 상용비자 발급이 가능하다. 상성, 현대 등 중국에 현지 법인이 있는 국내 대기업들의 경우, 중국 대사관의 조치에도 불구하고 중국을 오가는데 큰 불편이 없다는 입장이지만, 국내 중견·중소기업 임직원들의 경우는 당장 적지 않은 불편을 겪어야만 한다.이런 사정이 알려지면서 제주 관광업계에서는, 중국대사관의 조치가 중국인들의 제주 관광에 부정적인 영향을 끼치는 것은 아닌지 예의 주시하고 있다.벌써부터 제주지역에는 중국관광객의 발길이 줄어들고 있다는 확인 안 된 설(說)이 빠르게 퍼지고 있다. 업계에서는 “공항과 항만의 면세점을 찾는 손님이 눈에 띄게 줄고 있다”, “중국 단체 관광객의 제주 방문 일정이 취소됐다”는 말도 들리고 있다. 실제 중국 현지에서는 중앙정부나 지방정부가 한국과의 교류를 갑자기 중단하거나 연기하는 일이 속출하고 있다.지역 관광업계에서는, 당장은 크게 차이가 나지 않겠지만, 시간이 흐를수록 제주를 찾는 중국 관광객의 수가 줄어들 것이란 관측이 힘을 얻고 있다. 반면 같은 사안을 바라보는 제주도청의 시각은 상당히 다르다.제주도 관광국 관계자는 “중국협력팀을 중심으로 대 중국 교류와 관계 설정에 공을 들이고 있는 만큼, 예정된 교류나 계획이 차질을 빚는 일은 없을 것으로 본다. 종합적인 판단을 통해서 제주관광에 차질이 없도록 대책을 추진해 나갈 계획”이라고 말했다. 양원석							wonseok@newdaily.co.kr 기자의 다른 기사 보기 보도자료 및 기사제보 press@newdaily.co.kr [자유민주·시장경제의 파수꾼 – 뉴데일리 newdaily.co.kr] Copyrights ⓒ 2005 뉴데일리뉴스 - 무단전재, 재배포 금지 생생 헤드라인 뉴스 이 시각 주요뉴스와 만나보세요. 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' '쌍둥이 적자' 위기 증폭…재정 -86.8兆·경상 -30.5억불 르노코리아, 빠른 출고·XM3 하이브리드로 '반격' [단독] KT&amp;G '릴' 신제품 11월 출시… 아이코스와 정면 승부 뉴데일리 댓글 운영정책 라이브리 댓글 작성을 위해 Javascript를 활성화 해주세요. 자동차 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’.. 제네시스, 부산국제영화제에 ‘브랜드 존’ 운영… G90 LWB 등 5대 전시.. 르노코리아 QM6, 세단 정숙성과 SUV 적재능력 갖춘 '팔방미인'.. 크리에이티비티 [칸 라이언즈 서울 2022] 방종환 트위치코리아 대표 "Z세대가 사회 변화 .. [칸 라이언즈 서울 2022] 성현제 HS애드 팀장 "AI가 대체 어려운 고객.. [칸 라이언즈 서울 2022] 박윤진 서울라이터 발행인 “직장 영원하지 않아... 금융·산업 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’.. 인천·수원 KTX 사업 지연이 갑질 때문?… 현대로템 “납품에 최선 다했다”.. 제네시스, 부산국제영화제에 ‘브랜드 존’ 운영… G90 LWB 등 5대 전시.. IT·과학 [데일리 IT 단신] LGU+, 하나은행과 키즈전용 금융서비스 선봬 外.. TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리'.. 中, 美 반도체 통제에 '희토류' 수출 규제 만지작.. 오피니언 [취재수첩] 여야 정쟁으로 얼룩진 과방위 국감, 정책 논의 ‘실종’ [취재수첩] 일상 회복되자 다시 규제… 편의점 자가검사키트, 해답은 없을까 [취재수첩] 일양약품 수사… 꿈만 쫓은 코로나 치료제의 민낯 [취재수첩] '시작이 반', 카카오게임즈의 소통 [취재수첩] 한미약품 '뚝심 R&amp;D' 글로벌 신약 결실… 이제 시작이다 부동산 부동산R114, 개업공인중개사 경쟁력 강화 지원…더비즈와 업무협약.. 대우건설, 우즈벡 민관합동사업(PPP) 적극 참여.. 현대건설, 2조원대 比 남부도시철도공사 본계약 체결.. 회사소개 오시는 길 인재채용 제휴안내 회원약관 저작권안내 이메일 무단수집거부 개인정보처리방침 청소년보호방침(책임자: 국승환) 광고문의 보도자료 : press@newdaily.co.kr 기사제보 제안마당 법인명: 뉴데일리(주) | 제호명: 뉴데일리 | 주소:（100-120） 서울시 중구 남대문로 5가 120 단암빌딩 3층 | 등록번호: 서울 아00115 | 등록일: 2005년 11월 9일 | 발행인: 이성복 · 편집인: 이진광 대표전화: 02-6919-7000 | 정치·사회 편집국: 02-6919-7002 | 경제 편집국: 02-6919-7003 | 광고국: 02-6919-7012 | 팩스: 02-702-2079 Copyright © Newdaily All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 '장애물 없는 관광환경 조성' 5개년 계획 수립 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 '장애물 없는 관광환경 조성' 5개년 계획 수립 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 '장애물 없는 관광환경 조성' 5개년 계획 수립 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.08.11 14:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 '장애물 없는 관광환경 조성 5개년 계획'을 수립한다고 11일 밝혔다.이번 계획은 접근능력이 어려운 장애인, 노인 등 관광약자의 관광 향유권을 확대한다는 취지하에 추진된다.특히 오는 2025년에는 65세 이상 인구가 전체 인구대비 20% 이상의 초고령사회 진입이 예상됨에 따라 실버관광 기반을 구축한다는 계획이다.장애인, 노인, 임산부, 영.유아 가족 등 모든 사람의 이동 불편이나 제약 없이 관광을 할 수 있는 관광지 조성을 목적으로 오는 2021년까지 매해 추진해야 할 주요 목표를 설정하고 재정투자와 연계된 구체적인 실행방안을 포함하게 된다.이를 위해 한국관광공사에서 주관한 2015 장애물 없는 관광환경 실태조사를 분석하고, 공영관광지, 사설 관광지, 숙박.음식점, 이동수단, 서비스 분야로 구분한 계획을 수립할 방침이다.관광국을 중심으로 교통.장애인 관련부서 및 행정시와 제주관광공사, 제주관광협회 등 유관기관과 전문가가 참여하는 TF팀을 구성해 계획을 수립한다.제주도 관계자는 "그 동안 추진했던 관광약자를 위한 정책의 미흡한 점을 발굴하고 개선해 나갈 예정"이라며 "관광약자를 위한 관광환경 조성을 체계적으로 추진해 나갈 수 있는 계기로 복지관광을 실현해 나가는데 최선의 노력을 다할 것"이라고 밝혔다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>“日골프관광객 잡자” 제주도·관광협회 민관합동 마케팅 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 “日골프관광객 잡자” 제주도·관광협회 민관합동 마케팅 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 “日골프관광객 잡자” 제주도·관광협회 민관합동 마케팅 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.08.07 17:32 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 지난 8월2~5일 일본 동경스포츠박람회에 참가해 골프관광객 유치를 위한 비즈니스 마케팅을 펼친 제주관광 민·관 홍보단. ⓒ제주의소리 제주도와 제주도관광협회가 일본 골프관광객 유치를 위한 민관 합동 마케팅을 전개했다.제주도관광협회는 도내 골프장 및 여행업계와 민관 공동홍보단을 구성, 지난 2일부터 5일까지 일본 도교에서 열린 ‘도쿄 스포츠박람회’에서 골프 관광객 유치 활성화를 위한 비즈니스 마케팅을 전개했다고 7일 밝혔다. 이번 박람회는 일본에서 개최되는 가장 큰 스포츠 및 피트니스 박람회다.제주관광 홍보단은 현지 주요 골프업계와 레저스포츠 기관·단체, 동호회 등을 대상으로 공격적인 판촉 활동을 벌이는 한편 향후 다양한 골프 관련 협력 방안 모색을 위한 인적 네트워크를 구축했다.키타오카 토시아키 전일본골프연습장연맹 이사는 “한·일간 스포츠문화 교류를 희망하고 있으며 제주골프 상품 기획과 함께 400개사의 골프연습장 대표들에게 제주골프의 우수성과 매력을 적극적으로 전파하겠다”고 약속했다. 제주관광 홍보단은 또 일본 최대 골프 미디어 매체인 GDO(Golf Digest Online)와의 간담회를 통해 일본 전역으로 온라인을 활용한 제주 골프장을 홍보할 수 있는 여건을 마련했다.오는 9월1일부터 5일까지는 GDO 관계자들이 제주를 방문, 도내 골프장 방문 시찰 등을 추진하기로 의견을 모았다.관광협회 관계자는 “민관 홍보단은 이번 방문 세일즈를 통해 실질적인 일본지역 골프 관광객이 유치될 수 있도록 후속조치를 철저히 해나갈 계획”이라고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 - 日아오모리현 자매결연… 관광 활성화 추진 본문 바로가기 이전 페이지 서울신문 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 서울신문 주요뉴스를 볼 수 있습니다. 보러가기 서울신문 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 생중계 랭킹 제주도 - 日아오모리현 자매결연… 관광 활성화 추진 입력2016.08.10. 오전 3:37 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [서울신문]제주도와 일본 아오모리현이 자매결연하고 축제와 스포츠 등 활발한 민간 교류 활동에 나선다.일본을 방문 중인 원희룡 제주지사는 지난 8일 아오모리현청에서 미무라 신고 지사와 관계자 등이 참석한 가운데 자매결연협정을 체결하고 관광 활성화는 물론 문화 및 민간교류 확대를 추진하기로 했다고 9일 밝혔다.양측은 서로가 보유한 세계자연유산 보전 및 활용을 위한 각종 교류는 물론 1차 산업과 관광, 문화, 청소년 등 다방면에 걸친 협력을 이어가기로 했다. 축제, 스포츠 등 민간분야에서의 교류활동을 촉진하고 관광 활성화를 위한 관광홍보 활동 등에도 협력하기로 했다.이번 협정으로 제주도와 자매결연한 외국 도시(지방)는 미국 하와이주와 인도네시아 발리주, 러시아 사할린주, 중국 하이난성, 포르투갈 마데이라주 등 6곳으로 늘었다.제주 황경근 기자 kkhwang@seoul.co.kr▶ [서울신문 바로가기] [페이스북] ▶ [인기 무료만화 보기] - Copyrights ⓒ서울신문사. 무단 전재 및 재배포 금지 - 황경근 kkhwang@seoul.co.kr Copyright ⓒ 서울신문. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. '탁구 얼짱' 서효원, 맥심 찍은 이유 물었더니… "대표머슴" 새누리 사상 첫 호남 대표 된 이정현 [영상] 성주 간 김제동 "난 경북이다 이 XX들아" 10년된 낡은 전기요금 누진제 고집하는 정부 30대女, 미군과 하룻밤 보내 출산…아기 '질식사' 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울신문 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울신문 헤드라인 尹, 한일 군사협력 논란에 “北 핵위협 앞에 어떤 우려가 정당화되나” 윤석열 대통령이 11일 한일 군사협력 강화에 대한 일각의 우려에 “핵위협 앞에서 어떤 우려가 정당화될 수 있겠나. 저는 그렇게 생각한다”고 밝혔다. 윤 대통령은 이날 용산 대통령실 출근길 문답에서 ‘한일관계 개선 필 나경원 “난 반윤 아냐…유승민, 尹 비판 과해” 나경원 전 국민의힘 의원이 전당대회 출마 가능성을 시사하며 자신을 가리켜 “반윤(반윤석열)은 아니다”라고 강조했다. 나 전 의원은 11일 KBS 라디오 프로그램 ‘최경영의 최강시사’와의 인터뷰를 통해 “특별히 포지션 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 그룹 신화 신혜성(43·본명 정필교) 측이 음주측정 거부 혐의로 현행범으로 체포된 사실을 인정하고 공식 사과했다. 11일 신혜성 소속사 라이브웍스컴퍼니는 “신혜성은 10월 10일 오후 11시쯤 한 음식점에서 지인들과 한강공원서 ‘독사’에 물린 반려견…뱀 마주쳤다면 ‘이렇게’ 행동하세요 시민들이 즐겨 찾는 서울 한강공원에서 독사가 나타나 산책하는 시민의 반려견을 무는 사고가 발생했다. 지난달 27일 네티즌 A씨는 자신의 인스타그램에 ‘마포구 주민과 한강시민공원을 산책하시는 보호자님들께 알린다’는 내 “담요 덮고 낮잠”…태국 총기난사서 유일 생존한 3세 여아 영유아 24명 등 총 38명이 숨진 태국 어린이집 총기난사 참사에서 3세 여자아이가 유일하게 살아남은 사실이 알려졌다. 그는 사건 당시 담요를 덮고 자고 있었다. 9일(현지시간) 로이터통신과 BBC 등에 따르면 3살 이전 뉴스들 보기 3 다음 뉴스들 보기 서울신문이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울신문 헤드라인 더보기 尹, 한일 군사협력 논란에 “北 핵위협 앞에 어떤 우려가 정당화되나” 2시간전 나경원 “난 반윤 아냐…유승민, 尹 비판 과해” 1시간전 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 58분전 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 2시간전 한강공원서 ‘독사’에 물린 반려견…뱀 마주쳤다면 ‘이렇게’ 행동하세요 14분전 “담요 덮고 낮잠”…태국 총기난사서 유일 생존한 3세 여아 12분전 서울신문 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 19시간전 2 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 2시간전 3 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 58분전 4 김의겸, 한동훈 美출장 지적하자…진중권 “자폭성 폭로…왜?” 2시간전 5 “칼춤 춰봐?”…공개 장소서 부하직원 엉덩이 때린 간부 1시간전 1 문재인 전 대통령, ‘문프셀러’ 현상에 “출판계 도움돼 기쁘다” 4시간전 2 김의겸, 한동훈 美출장 지적하자…진중권 “자폭성 폭로…왜?” 2시간전 3 [속보] 尹대통령 “北, 핵으로 얻을 수 있는 건 없다…한미일 안보협력 대응” 2시간전 4 “한반도에 욱일기” 이재명 발언에 정진석 “국민 현혹 망언” 2시간전 5 “한동훈, 이재명 수사 방미” vs “김의겸, 내부고발 하나” 7시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 지난 5월 7일 여수의 한 아파트 주차장에서 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보 후 무참히 살해됐다. 여수 의처증 살인사건은 ‘어린 피해자의 자녀들이 상처 입을까’ 경찰이 보도 자제를 요청하 음주 운전하다 5m 낭떠러지로 추락…나무에 걸려 목숨 건져 음주 운전을 하던 남성이 낭떠러지에 추락하는 사고가 발생했습니다. 어제(10일) 전남 여수경찰서에 따르면 이날 오후 5시 14분경 전남 여수시 남면 금오도 한 도로에서 A(49) 씨가 몰던 1t 트럭이 마을로 진입하 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 “한동훈 말만하면 화제, 관심 피크 찍었다”… 어록집 나오는 이유 한동훈 법무부 장관의 발언을 모은 어록집이 출판되는 가운데, 이를 기획한 출판사 측은 “유튜브 방송을 보다가 어떤 분이 출판계에서는 야당 인사들이 낸 책들이 베스트(셀러)가 되는데 정부나 여당에 속한 분들 책은 거의 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 재생하기 재생시간03:19 [단독] 'SLBM 개발' 국방과학연구소, 5년 동안 160명 떠났다 지난해 세계 7번째로 잠수함 발사 탄도미사일, SLBM 개발에 성공한 국방과학연구소에서 최근 5년 동안 160명 넘는 연구 인력이 퇴사한 것으로 YTN 취재 결과 파악됐습니다. SLBM 개발은 물론, 핵심 국방기술을 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' 전 세계적으로 코로나19가 잠잠해지자 아프리카에서 또 다른 감염병 경고등이 들어왔다. 치명률이 50%에 육박하는 에볼라 바이러스다. 한 달 사이 벌써 30여명이 사망했고 2014년 에볼라가 유입된 경험이 있는 미국엔 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 80대 노모 생신에 일가족 5명 참변..尹대통령 "대책마련" 지시 80대 어머니 생일을 맞아 시골집에 모였던 일가족 5명이 숨진 사고를 조사 중인 경찰과 소방당국이 '일산화탄소 중독'을 잠정 사망 원인으로 결론지었다. 현장에 함께 있던 일가족 6명 중 유일한 생존자인 큰딸은 집 안 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 대통령실이 윤석열 대통령의 ‘비속어 논란 보도’와 관련 수사를 받는 &lt;문화방송&gt;(MBC)을 향해 “기본적으로 공영방송이 책임을 다하고 있느냐는 질문에 대해 답이 필요하다”고 압박했다. 대통령실의 이재명 부대변인은 1 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 [뉴욕시그널] 모건스탠리: 일의 미래를 주도할 핵심기업 더밀크 유료 교육 뉴스 브리핑 - 2022.10.07 학종 전공별 탐구 주제 유료 🐰💌 누가 진정한 빌런인가? 레빗구미의영화이야기 유료 노르웨이에서 또 다시 발생한 총기난사 사건 텀크루즈 돈되는 경제뉴스 해설 - 투자는 네이버로 투기는 카카오로 내 자산에 도움이 되는 경제뉴스 해설 유료 북한 미사일발사에 일본 충격 corescience 유료 처음으로 맞은 겨울 젊어서 실패는 실패가 아니다! [10월 한정, 수강권 50% 할인 이벤트] 1인기업가를 위한 사명 브랜딩 만드는 법 책먹는여자 동영상 기사 유료 직원 모니터링의 역효과 HBR 에센셜 영국 도박사들이 본 이강인의 가치는? SpoQ: 데이터로 보는 스포츠 학생부종합 탐구생활 _ 약학과 입시 뉴스 읽어주는 컨설턴트 유료 10/5 오늘의 주요 증시 일정 리치언니 투자노트 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울신문 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 &lt; 건설/부동산 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 건설/부동산 제주도 관광객 수요 폭발적 증가, 신규 수익형 호텔 투자자들 사이 뜨거운 감자 기자명 금강일보 입력 2016.08.16 11:11 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 장기화되는 경기불황과 사상 최저치를 기록하고 있는 저금리 현상으로 수익형 부동산에 대한 관심이 집중되고 있다. 특히 투자한 상품에 대한 현금화 가능 여부를 뜻하는 환금성이 좋은 상품인 수익형 호텔이 뜨거운 감자로 부상하고 있다. 하지만 수익형 호텔의 수익은 해당 호텔이 위치한 관광지의 방문객 수요에 따라 공실이 결정되기 때문에 호텔의 접근성이 무엇보다 중요시 여겨지고 있다. 이에 따라 매년 관광객 수요가 10%이상 급증하고 있는 제주도 수익형 호텔에 대한 관심이 뜨겁다. 실제 제주도 관광협회의 발표자료에 따르면 2014년 제주도를 방문한 관광객은 1227만명이 넘으며, 2015년 방문관광객은 1363만명을 넘어 11.1% 증가한 것으로 나타났다. 또한 제주도 서귀포에 제2 신공항 건설계획을 밝혀 관광 수요는 꾸준히 증가할 것으로 보인다. 때문에 제주도 숙박시설의 공급량은 급증하는 수요에 비해 여전히 부족하다는 전문가들의 평이 많다. 특히 미래가치 투자 계획이 집중되어 있는 제주도 서귀포시의 호텔 공급이 부족한 실정이다. 서귀포시는 제2신공항을 시작으로 서귀포 혁신도시, 영어교육도시, 예래 휴양형 주거단지, 서귀포 관광미항 헬스케어타운, 강정민군 복합미항, 신화역사공원, 위미항 다기능어항 개발사업 등 풍부한 관광컨텐츠 개발 계획이 집중되어 서귀포 호텔의 공실이 없을 것으로 전망된다. 사업지 인근에 위치한 제주 위미항은 해양수산부의 '10港 10色 국가어항 만들기' 프로젝트에 선정되면서 300억원이 투입돼 향후 해양 레저 네트워크의 새로운 플랫폼 역할을 수행 할 것으로 전망된다. 서귀포 위미항에 자리할 수익형 분양호텔인 코업시티호텔 하버뷰의 관계자는 “제주도의 관광객 수요가 증가한 만큼 숙박시설의 추가 공급은 불가피할 것으로 보아며, 제주도 서귀포시의 관광수요는 앞으로 더욱 증가할 것이기 때문에 제주도 서귀포 내에서도 요충지에 자리잡은 코업시티 호텔 하버뷰 분양에 관련하여 끊임없는 문의가 이어지고 있는 상황입니다 .”라고 전했다. 제주 수익형 호텔인 코업시티 호텔하버뷰는 국내 부티크&amp;비즈니스호텔을 20년 이상 운영하고 있는 숙박시설 운영관리 기업인 코업이 맡아 안정적인 객실가동률로 높은 수익률이 기대되는 곳이다. 저작권자 © 금강일보 무단전재 및 재배포 금지 금강일보 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 제13회 대전효문화뿌리축제 성료 07 시중자금 은행 쏠림, 반작용 우려 08 1호선, 유튜브 자주 끊기는 이유 09 “지속가능한 대학 최선 다할 것” 10 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 11 피플바이오, 주가 강세 보여 12 비난·논란 자초하는 대전시의회 13 국민 허리띠 졸라매는데 공기업은 특혜… 14 버킷스튜디오 주가 급락, 이유는? 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 금산군, 우수 평생학습도시 선정 12 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 13 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 14 당진시재향군인회, 제70주년 재향군인의 날 기념행사 개최 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 ‘복귀’ 홍진영, 근황은? 05 박수홍 엄마 ‘카레사건’ 재조명 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 '스맨파' 새삥 안무 표절 논란 뭐길래? 10 고두심 아들 김정환 누구? 11 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 12 [오늘날씨] 서울 아침 6도, 가을 추위 찾아와... 강한 바람에 체감온도도 뚝 13 골프선수 박결, 국내 톱스타와 불륜설에... 14 김세정‘♥안효섭’과의 근황 전체보기 가장 빠른 충청뉴스 태안군민체육대회 6년 만에 15일 개최 태안군민 ‘화합의 한마당’ 태안군민체육대회가 2016년 이후 6년 만에 15일 성대한 막을 올린다.군민체육대회는 태안종합운동장 및 보조경기장에서 8개 읍·면민과 출향군민이 참여한 ... 금산군, 우수 평생학습도시 선정 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광국, '관광.투자 질적 성장 실현' 워크숍 개최 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.08.05 16:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도 관광국(국장 이승찬)은 5일 오후 2시 제주도청 2청사 자유실에서 '제주의 미래가치를 키우는 관광·투자의 질적 성장 실현'을 주제로 한 워크숍을 개최했다.제주도와 각 행정시 관광.투자 분야 공무원 등 60여명이 참석한 이날 공무원은 관광분야 하반기 핵심업무 추진계획 발표에 이어 연내 실질적인 성과를 낼 수 있는 협의 강화 방안을 논의했다.특히 제주관광 질적성장 기본계획 후속 조치 추진과 제주 MICE 다목적복합시설 확충, 대규모 관광단지 조성사업 체크리스트 운영 정착, 제주 특성에 적합한 선진 카지노업 관리.감독 매뉴얼 제정 등 소관별 핵심과제가 집중 논의됐다.이승찬 제주도 관광국장은 "이번 워크숍을 통해 관광국의 비전을 공유하고, 제주관광 발전을 위한 공감대 형성을 통해 제주관광 질적성장을 앞당기는 기회가 되길 바란다"고 말했다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 중국인 관광객 비중만 높았네 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 중국인 관광객 비중만 높았네 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도, 중국인 관광객 비중만 높았네 기자명 조문호 기자 입력 2016.08.03 13:15 수정 2016.08.04 11:43 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 여행목적 단순해 재방문률 겨우 10%대다양한 욕구 맞춘 관광상품 개발 ‘시급’“도내 관광기업 적극적 협조 유도해야” [제주도민일보DB] 서귀포시 성산일출봉을 둘러보고 내려가는 중국인 관광객들.[제주도민일보=조문호 기자] 제주도를 찾는 외국인 관광객 가운데 중국인 관광객(이하 요우커)의 비중은 높아지고 있지만 여행목적이나 형태가 단순해 개선이 필요하다는 지적이다.제주발전연구원 신동일 연구위원이 3일 발표한 ‘중국인 관광객 유치에 따른 도민소득 증대 방안’ 연구결과에 따르면 내도 외국인 관광객 가운데 요우커(遊客)가 차지하는 비중은 2010년 51.3%에서 해마다 급증, 지난해에는 85.5%를 차지했다.올해 상반기에만 하더라도 전체 외국인 관광객 164만9263명 가운데 요우커는 85.4%(140만9091명)를 차지했다.요우커 가운데 ‘5일 이상’ 머무르는 경우는 46.6%(제주관광공사의 ‘2015 제주도 방문관광객 실태조사’ 기준)로 체재기간은 약간 긴 것으로 나타났다.이에 비해 방문횟수는 ‘1회’가 86.1%를 차지했다. 재방문률이 매우 낮은 수준이다.그 원인은 제주 여행목적이 85.1%가 ‘휴가 및 휴양여행’이고, 제주여행 고려 요인으로 ‘자연경관 감상’을 60.8%나 꼽은 것에서 어느 정도 엿볼 수 있다.[제주도민일보DB]. 제주시 연동에서 셀카를 찍고 있는 중국인 관광객들.도내 관광업계 전문가들은 그 동안 “제주도를 찾는 외국인 관광객의 관광형태가 자연경관 감상에만 집중돼 있어 다양한 관광프로그램 마련이 시급하다”고 지적해왔다.제주도와 제주관광공사 등 관광 전문기관들도 이에 대비해 웨딩관광, 요트관광, 낚시관관 등 고부가가치형 관광상품을 개발해 ‘질적 성장’으로 나아가기 위해 노력을 기울이고 있다.신 연구위원은 연구보고서에서 중국의 국외관광에 대해 ▶지속적으로 성장 ▶방한(내도) 관광객도 증가 ▶일본과의 유치경쟁 더욱 치열 ▶관광객이 젊어지고 여성, 개별, 가족단위 관광객 증가 ▶힐링과 스마트관광이 중요한 이슈로 부각 등의 변화상을 전망했다.그는 이를 통해 ▷지역 상권과의 접근성 강화 필요 ▷개별 및 가족단위 관광인프라 확충 ▷스마트관광 활성화 대비 ▷힐링, 셀러브리티 등 고부가가치 상품 개발 등 정책적 시사점을 이끌어냈다.요우커들의 관광 욕구가 다양해지는 만큼 제주도 차원의 대책 마련도 서둘러야 한다는 지적이다.[제주도민일보DB] 제주도와 제주관광공사가 지난 5월 29일부터 6월 2일까지 중국 심양지역의 유력 캠핑 동호회와 여행사, 매체를 대상으로 실시한 제주 캠핑·레저 상품개발 및 홍보를 위한 팸투어 현장.제주관광공사 한 관계자는 최근 이와 관련 “요우커의 국외관광은 한국만 유독 단체관광에 집중됐다”며 그 원인으로 언어소통 불편, 매력적인 관광 아이템 부족 등을 들었다. 제주도는 이에 더해 대중교통의 불편함도 한 요소로 꼽았다.이 관계자는 이에 대비 개별관광객(FIT)이나 특수목적관광객(SIT)의 다양한 욕구를 만족시킬 수 있는 관광상품 개발, 이와 함께 이동수단 편의성 제고 등의 필요성을 강조했다.신 연구위원은 결론 및 제언에서 “향후 행정기관을 포함한 정책 집행기관 및 유관기관들은 도민 역량강화를 염두에 두는 지원 방안 마련, 도내 관광기업의 적극적 협조와 참여를 유도해 내는 꾸준한 홍보 및 설득 활동이 가장 중요한 요인”이라고 밝혔다. 관련기사 ‘요우커’, 제주도민 소득증대로 연계하자 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 렌터카 성수기 예약율 '역대 최저' - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 12:03 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 제주도 관광객 렌터카 성수기 예약율 '역대 최저' 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 산업 정책·일반 제주도 관광객 렌터카 성수기 예약율 '역대 최저' 가동율 작년대비 80%에도 못미처, 극성수기인데도 반값 할인중 유제원 기자 승인 2016.08.07 19:47 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [이뉴스투데이 유제원 기자]본격적인 피서철과 휴기시즌을 맞이하여 제주도를 방문하는 여행객이 늘어나고 있다. 작년 7월 기준 월방문자는 98만명이었으나, 올해는 같은 기간 113만명이 방문하여 전년보다 13%증가한 수치다.하지만, 도내 렌터카 예약율은 사상 최저여서 업체들의 고민은 늘어가고 있다. 원인은 바로 수요에 비해 공급이 많아서 이러한 현상이 나타나는 것으로 드러났다. 좀더 자세히 살펴보면 렌터카 업체수는 14년 12월31일 기준 82개업체에서 16년 6월 31일 기준 110개 업체로 약 34%가 늘었으며, 차량대수도 2만 2819대에서 2만 9900대로 약 31%가 증가했다.그런데 늘어난 업체를 살펴보면 도내 업체가 90% 이상 차지했다. 즉, 업체간의 경젱은 더욱 치열해지고 있는 상황이다.도내 렌터카업체들 조사결과, 대략 작년대비 예약율이 평균 20%정도 떨어졌으며, 극성수기 인데도 50%까지 할인을 하고 있다. 이러한 현상은 실제로 몇몇 렌터카예약사이트를 방문하면 금방 알수 있다. 제주도렌터카 가격비교사이트를 운영중인 제주패스렌트카에 따르면, 지난달 21일부터 이달 20일까지 42개업체, 9000여건의 예약정보 분석결과 평균 대여일수는 2박 3일이 93%로 압도적으로 많았다. 3박 4일은 6%, 기타 1% 순이었다. 자차보험가입율도 올초 조사시에는 79%수준이었는데, 이번 조사에서는 85%로 늘어났다고 한다.차종별 대여순위도 살펴보면 작년 년말 연휴기간에는 승합차의 대여율이 가장 높았으나, 올 여름 성수기에는 중형차, 준중형에 이어 대여순위 3위를 기록했다. 경차의 인기는 여전했으며, 2박 3일 기준 차종별 평균대여료는 중형차가 15만원대, 준중형이 13만원, 경차가 10만원대, 승합차가 28만원대였다.렌터카 업체의 관계자는 "대형업체들은 가동율과 차량가격이 안정적으로 운영되고 있는 반면, 신생업체 또는 규모가 작은 업체들은 상대적으로 약세를 면치 못하고 있는 실정"이라며 "9월 1일부터 공항인수반납도 불가능하게 되어 걱정이 이만저만이 아니다"고 하소연했다. Tag #N 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 유제원 기자 kingheart@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 의왕 청계동평생학습센터, 평생대학 수강생 모집 의왕 청계동평생학습센터, 평생대학 수강생 모집 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 2부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 3의왕 청계동평생학습센터, 평생대학 수강생 모집 4광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 5카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>'19회 제주도 관광기념품 공모전' 당선작 발표 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 '19회 제주도 관광기념품 공모전' 당선작 발표 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 '19회 제주도 관광기념품 공모전' 당선작 발표 홍수영 기자 승인 2016.08.11 15:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 금상 ‘제주 풍경 일러스트 종이액자’, ‘제주 해녀 캐릭터(숨비·소리) 이야기’ 등 총 34개 선정 [제주일보=홍수영 기자] 제주특별자치도와 제주관광협회는 ‘제19회 제주특별자치도 관광기념품 공모전’에서 금상으로 선정된 ‘제주 풍경 일러스트 종이액자’와 ‘제주 해녀 캐릭터(숨비·소리) 이야기’ 등을 비롯해 총 34개 당선작을 선정했다고 11일 밝혔다.일반기념품 분야 금상 작품으로 선정된 홍성훈씨의 ‘제주 풍경 일러스트 종이액자’는 아름다운 도내 명소의 풍경을 담은 종이액자를 통해 저렴한 가격으로 제주를 오래 기억할 수 있다는 점에서 높은 점수를 받았다.테마기념품 분야 금상 작품인 이재호·고난영씨의 ‘제주 해녀 캐릭터 이야기’는 제주 해녀 캐릭터를 종이칼, 열쇠고리 등 상품화해 그 가치를 높이는 데 기여했다는 평가를 받았다.다만 이번 공모전에서는 심사위원들의 종합적 의견에 따라 대상은 선정되지 않았으며, 시상식은 이달 말 개최될 예정이다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? &lt; 맛집탐방 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 맛집탐방 여름 휴가철 제주도 관광객들이 들려야 할 제주도맛집은? 기자명 금강일보 입력 2016.08.01 14:11 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 국내를 대표하는 관광지 중 하나로 꼽힌다. 덕분에 제주도 관광객들을 맞이하기 위한 제주도맛집들도 즐비해 있다. 제주도에서는 타 지역에서 맛볼 수 없는 싱싱한 활어회가 많아 제주도횟집들이 맛집으로 자주 거론되고 있다.특히 여름철 휴가 차 제주도를 방문하는 관람객에게 있어 제주도 활어회는 별미로 통한다. 여름철 특선 메뉴를 선보이는 제주도횟집들도 많아 식도락 여행의 진수를 체험할 수 있기도 하다.제주도 제주시 동한두기길 소재 '월척수산본점'은 제주도에서만 맛볼 수 있는 다금바리, 갓돔 등의 횟감을 코스 요리로 선보이고 있다. 뿐만 아니라 광어, 고등어 등의 회를 저렴하게 제공하고 있다. 수십 가지에 이르는 다양한 스끼다시 또한 눈에 띈다. 업체 측의 가장 큰 특징은 고급어종 주문 시 매우 다양한 서비스를 제공한다는 점이다. 다금바리, 갓돔 주문 시 랍스타, 해물찜, 참돔구이, 참돔조림 등의 서비스 메뉴를 제공받을 수 있다. 아울러 여름 특선 메뉴인 해물닭찜 메뉴도 선보이고 있다. 매장에서의 오션뷰도 뛰어나다. 드넓은 제주도 바다를 감상하며 식사를 즐기는 것은 업체의 특별한 매력이다. 뿐만 아니라 식사 중 일몰 등의 장관을 구경할 수 있다.제주도 관광지도 가까이 있어 식사 후 편리한 동선을 구축할 수 있다는 장점도 있다. 업체는 제주공항에서 불과 5분 거리에 위치해 있어 접근성이 좋다. 또한 주변에 용두암, 용연구름다리, 용담해안도로, 제주수목원테마파크 등의 관광지도 다양하게 자리하고 있다.업체 관계자는 "제주도만의 특별한 횟감을 맛볼 수 있을 뿐 아니라 공항과 주변 관광지도 가까워 편리한 여행을 즐길 수 있다."라며 "제주공항근처맛집으로 휴가 차 제주도를 방문하는 관광객들이 늘고 있는 상황"이라고 전했다. 저작권자 © 금강일보 무단전재 및 재배포 금지 금강일보 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 제13회 대전효문화뿌리축제 성료 07 시중자금 은행 쏠림, 반작용 우려 08 1호선, 유튜브 자주 끊기는 이유 09 “지속가능한 대학 최선 다할 것” 10 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 11 피플바이오, 주가 강세 보여 12 비난·논란 자초하는 대전시의회 13 국민 허리띠 졸라매는데 공기업은 특혜… 14 버킷스튜디오 주가 급락, 이유는? 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 금산군, 우수 평생학습도시 선정 12 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 13 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 14 당진시재향군인회, 제70주년 재향군인의 날 기념행사 개최 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 ‘복귀’ 홍진영, 근황은? 05 박수홍 엄마 ‘카레사건’ 재조명 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 '스맨파' 새삥 안무 표절 논란 뭐길래? 10 고두심 아들 김정환 누구? 11 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 12 [오늘날씨] 서울 아침 6도, 가을 추위 찾아와... 강한 바람에 체감온도도 뚝 13 골프선수 박결, 국내 톱스타와 불륜설에... 14 김세정‘♥안효섭’과의 근황 전체보기 가장 빠른 충청뉴스 태안군민체육대회 6년 만에 15일 개최 태안군민 ‘화합의 한마당’ 태안군민체육대회가 2016년 이후 6년 만에 15일 성대한 막을 올린다.군민체육대회는 태안종합운동장 및 보조경기장에서 8개 읍·면민과 출향군민이 참여한 ... 금산군, 우수 평생학습도시 선정 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘제주도 드림타워 개발 ’ 롯데관광개발, 소유주 1주당 0.5주씩 무상증자 실시 - 이투데이 속보창 구독신청 RSS 부동산 시장동향 업계 정책 분양 개발 경매 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 부동산 업계 ‘제주도 드림타워 개발 ’ 롯데관광개발, 소유주 1주당 0.5주씩 무상증자 실시 입력 2016-08-08 11:08 수정 2016-08-08 11:16 정경진 기자																								jungkj@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲제주도 드림타워 조감도(제공=롯데관광개발)제주도 드림타워 카지노 복합 리조트 사업을 추진 중인 롯데관광개발이 보퉁주 1510만주를 무상증자한다. 롯데관광개발은 8일 오전 10시 이사회를 열고 주식발생초과금 75억6583만7000원을 자본에 전입하고 이에 상당하는 신주를 발행하기로 결의했다고 밝혔다.이에 따라 롯데관광개발은 이달 23일 주주명부에 등재된 주주에 대해 소유주식 1주당 0.5주의 비율로 신주를 배정한다. 배정한 주식이 1주 미만의 단수주일 경우 단수주는 신주 상장일의 종가를 기준으로 현금 지급한다. 이번 무상증자 결정에 따라 추가로 발행되는 신주는 1513만1674주이며 9월 7일 교부될 예정이다.롯데관광개발 관계자는 “이번 무상증자는 드림타워 사업을 원활히 진행하기 위한 목적”이라고 말했다.롯데관광개발의 주력사업으로 꼽히는 드림타워 카지노 복합리조트 사업은 제주시 도심 중앙에 추진되고 있다. 당시 2013년 11월 계열사인 동화투자개발이 중국 부동산개발사인 녹지그룹과 공동개발 계약을 체결하면서 시작됐다.이후 2015년 10월 롯데관광개발이 동화투자개발로부터 카지노호텔 계약금 1000억원과 전체 사업권리를 현물출자 받아 드림타워 카지노 복합리조트 사업을 직접 추진하게 됐다. 올 4월에는 세계1위 건설사인 중국건축이 시공사로 참여하면서 롯데관광개발・녹지그룹・중국건축으로 구성, 사업을 추진 중이다.향후 드림타워 카지노 복합리조트 완공시 롯데관광개발이 직접 소유 및 운영에 나선다. 녹지그룹은 호텔 레지던스 850실을 국내와 중국에서 분양할 계획이다.한편 올해 5월 착공에 들어간 드림타워 카지노 복합리조트는 호텔 776실과 호텔레지던스 850실 등 1626객실로 구성된다. 영업장면적 9120㎡의 외국인전용카지노, 쇼핑몰, 스카이라운지, 15개 레스토랑, 호텔부대시설을 갖추고 2019년 7월 개점한다. #롯데관광개발 #제주도드림타워 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 부동산 최신 뉴스 주산연, “임대아파트 표준건축비 현실화 시급” 국토부, ‘K-스마트도시' 기술력 뽐냈다…국제 로드쇼 개최 ‘공사중단’ 둔촌주공, 상가 갈등에 발목 잡히나 LH, 과천 지정타·의왕 초평 등 행복주택 3570가구 청약 SGC이테크건설, 전국 건설 현장서 ‘화재 예방 안전 캠페인’ 실시 부동산R114, 더비즈와 함께 AI·디지털 기반 중개업무 강화한다 KCC건설, 최고 38층·초역세권 ‘대전 에테르 스위첸’ 내달 분양 [르포] “부동산 한파 남의 일”…평택, 삼성·브레인시티 효과에 ‘외지인 밀물’ 슬그머니 멀어지는 2030의 내집마련...2년3개월 만에 최저치 "외국인, 7년간 국내 아파트 3만 채 샀다"…중국인이 62% 차지 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:59 20분지연 코스피 코스닥 1.다이나믹디자인 3,150 2.화천기계 1,390 3.베트남개발1 67 4.유니온머티리얼 350 5.STX 340 1.테라셈 22 2.코아스템 2,680 3.동국알앤에스 785 4.SCI평가정보 790 5.코디엠 123 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,370,000 -1.45% 이더리움 1,838,000 -2.8% 비트코인 캐시 159,100 -4.96% 리플 710.4 -6.13% 위믹스 2,405 -5.02% 에이다 567.7 -6.32% 이오스 1,483 -7.66% 트론 88.7 -0.63% 스텔라루멘 176.5 -3.45% 비트코인에스브이 67,900 -3.55% 체인링크 10,380 -5.12% 샌드박스 1,130 -5.68% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +581,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -463,6 +589,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -471,6 +600,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -480,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -501,9 +633,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -513,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -521,10 +650,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -532,10 +658,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -543,10 +669,270 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
